--- a/ThermalProfile/data/All_info_industry_types_thermal.xlsx
+++ b/ThermalProfile/data/All_info_industry_types_thermal.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20382"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\fs3-4-ines.rz.hs-offenburg.de\INES\INES\INES\Projekte\IND-E\5 - Projektarbeit\AP1\Python\Thermal\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asher\Desktop\projects\DEUSTO_iDesign_RES\ThermalProfile\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB2BB14E-B511-44BE-95D0-EE9B73A3C711}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95BF68FF-5817-4C39-9F49-781A70CE7858}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11280" activeTab="1" xr2:uid="{612B240B-EA99-41DA-B7DC-32C187B817CA}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{612B240B-EA99-41DA-B7DC-32C187B817CA}"/>
   </bookViews>
   <sheets>
     <sheet name="Thermal" sheetId="5" r:id="rId1"/>
@@ -18,10 +18,21 @@
     <sheet name="Thermal_Hauptprozesse" sheetId="4" r:id="rId3"/>
     <sheet name="Thermal_Entwurf (2)" sheetId="2" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029" calcCompleted="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -546,7 +557,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="229">
   <si>
     <t>Quelle: Fraunhofer ISI 2020 (2018) Erstellung von Anwendungsbilanzen für die Jahre 2018 bis 2020: für die Sektoren Industrie und GHD, Karlsruhe</t>
   </si>
@@ -1227,6 +1238,12 @@
   </si>
   <si>
     <t>in %</t>
+  </si>
+  <si>
+    <t>Peak_factor</t>
+  </si>
+  <si>
+    <t>Base_factor</t>
   </si>
 </sst>
 </file>
@@ -1390,20 +1407,14 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1419,7 +1430,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
@@ -1433,10 +1443,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="3" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
@@ -1447,9 +1457,9 @@
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Eingabe" xfId="3" builtinId="20"/>
-    <cellStyle name="Prozent" xfId="2" builtinId="5"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Entrada" xfId="3" builtinId="20"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Porcentaje" xfId="2" builtinId="5"/>
     <cellStyle name="Standard 2" xfId="1" xr:uid="{FF74DD50-7266-404B-9956-06E0069CDA9A}"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1466,9 +1476,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1506,7 +1516,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1612,7 +1622,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1754,7 +1764,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1766,46 +1776,46 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.109375" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
-    <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" customWidth="1"/>
-    <col min="9" max="9" width="14.140625" customWidth="1"/>
-    <col min="16" max="18" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.88671875" customWidth="1"/>
+    <col min="9" max="9" width="14.109375" customWidth="1"/>
+    <col min="16" max="18" width="21.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="5" t="s">
         <v>36</v>
       </c>
       <c r="C1" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="7" t="s">
         <v>207</v>
       </c>
       <c r="K1" t="s">
@@ -1824,7 +1834,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="D2" t="s">
         <v>28</v>
       </c>
@@ -1853,14 +1863,14 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3">
         <v>8</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>26</v>
       </c>
       <c r="D3" s="3">
@@ -1881,27 +1891,27 @@
       <c r="I3" s="3">
         <v>59.070121951219512</v>
       </c>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="N3" s="6"/>
-      <c r="P3" s="12">
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="N3" s="3"/>
+      <c r="P3" s="6">
         <v>2361.1299999999997</v>
       </c>
-      <c r="Q3" s="11">
+      <c r="Q3" s="6">
         <v>2250.0179999999996</v>
       </c>
-      <c r="R3" s="11">
+      <c r="R3" s="6">
         <v>2166.6840000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>24</v>
       </c>
       <c r="D4" s="3">
@@ -1922,32 +1932,32 @@
       <c r="I4" s="3">
         <v>0</v>
       </c>
-      <c r="K4" s="4">
+      <c r="K4" s="1">
         <v>1.51</v>
       </c>
-      <c r="L4" s="4">
+      <c r="L4" s="1">
         <v>0.42</v>
       </c>
-      <c r="M4" s="8"/>
-      <c r="N4" s="6"/>
-      <c r="P4" s="12">
+      <c r="M4" s="1"/>
+      <c r="N4" s="3"/>
+      <c r="P4" s="6">
         <v>39666.983999999989</v>
       </c>
-      <c r="Q4" s="11">
+      <c r="Q4" s="6">
         <v>39222.535999999993</v>
       </c>
-      <c r="R4" s="11">
+      <c r="R4" s="6">
         <v>38444.752</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>22</v>
       </c>
       <c r="D5" s="3">
@@ -1968,32 +1978,31 @@
       <c r="I5" s="3">
         <v>0</v>
       </c>
-      <c r="K5" s="4">
+      <c r="K5" s="1">
         <v>4.21</v>
       </c>
-      <c r="L5" s="4">
+      <c r="L5" s="1">
         <v>0.49</v>
       </c>
-      <c r="M5" s="10"/>
-      <c r="N5" s="6"/>
-      <c r="P5" s="12">
+      <c r="N5" s="3"/>
+      <c r="P5" s="6">
         <v>39750.317999999992</v>
       </c>
-      <c r="Q5" s="11">
+      <c r="Q5" s="6">
         <v>38972.533999999992</v>
       </c>
-      <c r="R5" s="11">
+      <c r="R5" s="6">
         <v>38111.41599999999</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>20</v>
       </c>
       <c r="D6" s="3">
@@ -2014,32 +2023,32 @@
       <c r="I6" s="3">
         <v>13.972191175982381</v>
       </c>
-      <c r="K6" s="4">
+      <c r="K6" s="1">
         <v>1.1200000000000001</v>
       </c>
-      <c r="L6" s="4">
+      <c r="L6" s="1">
         <v>0.77</v>
       </c>
-      <c r="M6" s="4"/>
-      <c r="N6" s="9"/>
-      <c r="P6" s="12">
+      <c r="M6" s="1"/>
+      <c r="N6" s="3"/>
+      <c r="P6" s="6">
         <v>98611.9</v>
       </c>
-      <c r="Q6" s="11">
+      <c r="Q6" s="6">
         <v>95306.317999999985</v>
       </c>
-      <c r="R6" s="11">
+      <c r="R6" s="6">
         <v>95195.205999999991</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="4" t="s">
         <v>18</v>
       </c>
       <c r="D7" s="3">
@@ -2060,31 +2069,31 @@
       <c r="I7" s="3">
         <v>12.726306405157043</v>
       </c>
-      <c r="K7" s="4">
+      <c r="K7" s="1">
         <v>1.21</v>
       </c>
-      <c r="L7" s="4">
+      <c r="L7" s="1">
         <v>0.53</v>
       </c>
       <c r="N7" s="3"/>
-      <c r="P7" s="12">
+      <c r="P7" s="6">
         <v>16916.802</v>
       </c>
-      <c r="Q7" s="11">
+      <c r="Q7" s="6">
         <v>15722.347999999998</v>
       </c>
-      <c r="R7" s="11">
+      <c r="R7" s="6">
         <v>15583.457999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8">
         <v>22</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="4" t="s">
         <v>17</v>
       </c>
       <c r="D8" s="3">
@@ -2105,32 +2114,32 @@
       <c r="I8" s="3">
         <v>26.747311827956988</v>
       </c>
-      <c r="K8" s="4">
+      <c r="K8" s="1">
         <v>2.09</v>
       </c>
-      <c r="L8" s="4">
+      <c r="L8" s="1">
         <v>0.15</v>
       </c>
-      <c r="M8" s="4"/>
-      <c r="N8" s="9"/>
-      <c r="P8" s="12">
+      <c r="M8" s="1"/>
+      <c r="N8" s="3"/>
+      <c r="P8" s="6">
         <v>8166.732</v>
       </c>
-      <c r="Q8" s="11">
+      <c r="Q8" s="6">
         <v>8083.3979999999992</v>
       </c>
-      <c r="R8" s="11">
+      <c r="R8" s="6">
         <v>7472.2819999999992</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D9" s="3">
@@ -2151,31 +2160,31 @@
       <c r="I9" s="3">
         <v>62.427288821446624</v>
       </c>
-      <c r="K9" s="4">
+      <c r="K9" s="1">
         <v>1.39</v>
       </c>
-      <c r="L9" s="4">
+      <c r="L9" s="1">
         <v>0.32</v>
       </c>
       <c r="N9" s="3"/>
-      <c r="P9" s="12">
+      <c r="P9" s="6">
         <v>18333.48</v>
       </c>
-      <c r="Q9" s="11">
+      <c r="Q9" s="6">
         <v>17777.919999999998</v>
       </c>
-      <c r="R9" s="11">
+      <c r="R9" s="6">
         <v>16833.467999999997</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D10" s="3">
@@ -2196,32 +2205,32 @@
       <c r="I10" s="3">
         <v>63.458458458458452</v>
       </c>
-      <c r="K10" s="4">
+      <c r="K10" s="1">
         <v>2.11</v>
       </c>
-      <c r="L10" s="4">
+      <c r="L10" s="1">
         <v>0.42</v>
       </c>
-      <c r="M10" s="4"/>
-      <c r="N10" s="9"/>
-      <c r="P10" s="12">
+      <c r="M10" s="1"/>
+      <c r="N10" s="3"/>
+      <c r="P10" s="6">
         <v>47555.936000000002</v>
       </c>
-      <c r="Q10" s="11">
+      <c r="Q10" s="6">
         <v>46555.927999999993</v>
       </c>
-      <c r="R10" s="11">
+      <c r="R10" s="6">
         <v>47361.49</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D11" s="3">
@@ -2242,27 +2251,27 @@
       <c r="I11" s="3">
         <v>76.987316087701956</v>
       </c>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
       <c r="N11" s="3"/>
-      <c r="P11" s="12">
+      <c r="P11" s="6">
         <v>133167.73199999999</v>
       </c>
-      <c r="Q11" s="11">
+      <c r="Q11" s="6">
         <v>125889.89599999998</v>
       </c>
-      <c r="R11" s="11">
+      <c r="R11" s="6">
         <v>112473.12199999999</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D12" s="3">
@@ -2283,32 +2292,32 @@
       <c r="I12" s="3">
         <v>71.816916246519668</v>
       </c>
-      <c r="K12" s="4">
+      <c r="K12" s="1">
         <v>3.86</v>
       </c>
-      <c r="L12" s="4">
+      <c r="L12" s="1">
         <v>0.23</v>
       </c>
-      <c r="M12" s="4"/>
-      <c r="N12" s="9"/>
-      <c r="P12" s="12">
+      <c r="M12" s="1"/>
+      <c r="N12" s="3"/>
+      <c r="P12" s="6">
         <v>15139.009999999998</v>
       </c>
-      <c r="Q12" s="11">
+      <c r="Q12" s="6">
         <v>14500.116</v>
       </c>
-      <c r="R12" s="11">
+      <c r="R12" s="6">
         <v>12888.991999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D13" s="3">
@@ -2329,32 +2338,32 @@
       <c r="I13" s="3">
         <v>21.898520876240401</v>
       </c>
-      <c r="K13" s="4">
+      <c r="K13" s="1">
         <v>2.1800000000000002</v>
       </c>
-      <c r="L13" s="4">
+      <c r="L13" s="1">
         <v>0.25</v>
       </c>
-      <c r="M13" s="8"/>
-      <c r="N13" s="6"/>
-      <c r="P13" s="12">
+      <c r="M13" s="1"/>
+      <c r="N13" s="3"/>
+      <c r="P13" s="6">
         <v>13083.437999999998</v>
       </c>
-      <c r="Q13" s="11">
+      <c r="Q13" s="6">
         <v>12638.989999999998</v>
       </c>
-      <c r="R13" s="11">
+      <c r="R13" s="6">
         <v>11083.421999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D14" s="3">
@@ -2375,32 +2384,32 @@
       <c r="I14" s="3">
         <v>7.4437869822485219</v>
       </c>
-      <c r="K14" s="4">
+      <c r="K14" s="1">
         <v>1.34</v>
       </c>
-      <c r="L14" s="4">
+      <c r="L14" s="1">
         <v>0.43</v>
       </c>
-      <c r="M14" s="8"/>
-      <c r="N14" s="6"/>
-      <c r="P14" s="12">
+      <c r="M14" s="1"/>
+      <c r="N14" s="3"/>
+      <c r="P14" s="6">
         <v>8972.2939999999981</v>
       </c>
-      <c r="Q14" s="11">
+      <c r="Q14" s="6">
         <v>8888.9599999999991</v>
       </c>
-      <c r="R14" s="11">
+      <c r="R14" s="6">
         <v>7777.8399999999992</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D15" s="3">
@@ -2421,32 +2430,32 @@
       <c r="I15" s="3">
         <v>19.636963696369637</v>
       </c>
-      <c r="K15" s="4">
+      <c r="K15" s="1">
         <v>1.37</v>
       </c>
-      <c r="L15" s="4">
+      <c r="L15" s="1">
         <v>0.67</v>
       </c>
       <c r="M15" s="1"/>
-      <c r="N15" s="6"/>
-      <c r="P15" s="12">
+      <c r="N15" s="3"/>
+      <c r="P15" s="6">
         <v>16472.353999999999</v>
       </c>
-      <c r="Q15" s="11">
+      <c r="Q15" s="6">
         <v>16361.241999999998</v>
       </c>
-      <c r="R15" s="11">
+      <c r="R15" s="6">
         <v>12777.88</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
       <c r="B16" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="4" t="s">
         <v>1</v>
       </c>
       <c r="D16" s="3">
@@ -2467,76 +2476,232 @@
       <c r="I16" s="3">
         <v>35.063617533922312</v>
       </c>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
       <c r="N16" s="3"/>
-      <c r="P16" s="12">
+      <c r="P16" s="6">
         <v>30972.469999999998</v>
       </c>
-      <c r="Q16" s="11">
+      <c r="Q16" s="6">
         <v>30083.573999999997</v>
       </c>
-      <c r="R16" s="11">
+      <c r="R16" s="6">
         <v>29111.343999999997</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
       <c r="N17" s="3"/>
-      <c r="P17" s="12">
+      <c r="P17" s="6">
         <v>489170.5799999999</v>
       </c>
-      <c r="Q17" s="11">
+      <c r="Q17" s="6">
         <v>472253.77799999999</v>
       </c>
-      <c r="R17" s="11">
+      <c r="R17" s="6">
         <v>447281.35599999997</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="25" t="s">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A18" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="B18" s="25"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="25"/>
-      <c r="J18" s="25"/>
-      <c r="K18" s="25"/>
-      <c r="P18" s="6"/>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="25" t="s">
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="18"/>
+      <c r="P18" s="3"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A19" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="B19" s="25"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="25"/>
-      <c r="J19" s="25"/>
-      <c r="K19" s="25"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A18:K18"/>
     <mergeCell ref="A19:K19"/>
   </mergeCells>
+  <conditionalFormatting sqref="D3:I16">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:I16">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K4">
+    <cfRule type="colorScale" priority="24">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K5">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K6">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K8">
+    <cfRule type="colorScale" priority="15">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K9">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K14">
+    <cfRule type="colorScale" priority="21">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K3:L17">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K5:L5">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K6:L6">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K8:L8">
+    <cfRule type="colorScale" priority="17">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K9:L9">
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K4:N4 N5 N3">
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="K10:N13 K3:L9 K14:L17 E17:I17">
     <cfRule type="colorScale" priority="27">
       <colorScale>
@@ -2549,8 +2714,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K4:N4 N5 N3">
-    <cfRule type="colorScale" priority="26">
+  <conditionalFormatting sqref="K14:N14 N15">
+    <cfRule type="colorScale" priority="23">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2561,6 +2726,46 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="L5">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L6">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L8">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L9">
+    <cfRule type="colorScale" priority="19">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="L4:N4 N5 N3">
     <cfRule type="colorScale" priority="25">
       <colorScale>
@@ -2571,8 +2776,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K4">
-    <cfRule type="colorScale" priority="24">
+  <conditionalFormatting sqref="L14:N14 N15">
+    <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -2581,8 +2786,40 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K14:N14 N15">
-    <cfRule type="colorScale" priority="23">
+  <conditionalFormatting sqref="M6:N9">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N16:N17">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P3:P16 P18">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2593,242 +2830,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L14:N14 N15">
-    <cfRule type="colorScale" priority="22">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K14">
-    <cfRule type="colorScale" priority="21">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K9:L9">
-    <cfRule type="colorScale" priority="20">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L9">
-    <cfRule type="colorScale" priority="19">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K9">
-    <cfRule type="colorScale" priority="18">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K8:L8">
-    <cfRule type="colorScale" priority="17">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L8">
-    <cfRule type="colorScale" priority="16">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K8">
-    <cfRule type="colorScale" priority="15">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K6:L6">
-    <cfRule type="colorScale" priority="14">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L6">
-    <cfRule type="colorScale" priority="13">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K6">
-    <cfRule type="colorScale" priority="12">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M6:N9">
-    <cfRule type="colorScale" priority="11">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K5:L5">
-    <cfRule type="colorScale" priority="10">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L5">
-    <cfRule type="colorScale" priority="9">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K5">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N16:N17">
-    <cfRule type="colorScale" priority="7">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P3:P16 P18">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P3:P16 P18">
-    <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K3:L17">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="P3:R16">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
         <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E3:I16">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3:I16">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
@@ -2844,56 +2851,56 @@
   <dimension ref="A1:R19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C16"/>
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.109375" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
-    <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" customWidth="1"/>
-    <col min="9" max="9" width="14.140625" customWidth="1"/>
-    <col min="16" max="18" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.88671875" customWidth="1"/>
+    <col min="9" max="9" width="14.109375" customWidth="1"/>
+    <col min="16" max="18" width="21.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="5" t="s">
         <v>36</v>
       </c>
       <c r="C1" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="7" t="s">
         <v>215</v>
       </c>
       <c r="K1" t="s">
-        <v>31</v>
+        <v>227</v>
       </c>
       <c r="L1" t="s">
-        <v>30</v>
+        <v>228</v>
       </c>
       <c r="P1" t="s">
         <v>42</v>
@@ -2905,7 +2912,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="D2" t="s">
         <v>226</v>
       </c>
@@ -2934,14 +2941,14 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3">
         <v>8</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>216</v>
       </c>
       <c r="D3" s="3">
@@ -2962,27 +2969,27 @@
       <c r="I3" s="3">
         <v>59.070121951219512</v>
       </c>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="N3" s="6"/>
-      <c r="P3" s="12">
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="N3" s="3"/>
+      <c r="P3" s="6">
         <v>2361.1299999999997</v>
       </c>
-      <c r="Q3" s="11">
+      <c r="Q3" s="6">
         <v>2250.0179999999996</v>
       </c>
-      <c r="R3" s="11">
+      <c r="R3" s="6">
         <v>2166.6840000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>75</v>
       </c>
       <c r="D4" s="3">
@@ -3003,32 +3010,32 @@
       <c r="I4" s="3">
         <v>0</v>
       </c>
-      <c r="K4" s="4">
+      <c r="K4" s="1">
         <v>1.51</v>
       </c>
-      <c r="L4" s="4">
+      <c r="L4" s="1">
         <v>0.42</v>
       </c>
-      <c r="M4" s="8"/>
-      <c r="N4" s="6"/>
-      <c r="P4" s="12">
+      <c r="M4" s="1"/>
+      <c r="N4" s="3"/>
+      <c r="P4" s="6">
         <v>39666.983999999989</v>
       </c>
-      <c r="Q4" s="11">
+      <c r="Q4" s="6">
         <v>39222.535999999993</v>
       </c>
-      <c r="R4" s="11">
+      <c r="R4" s="6">
         <v>38444.752</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>217</v>
       </c>
       <c r="D5" s="3">
@@ -3049,32 +3056,31 @@
       <c r="I5" s="3">
         <v>0</v>
       </c>
-      <c r="K5" s="4">
+      <c r="K5" s="1">
         <v>4.21</v>
       </c>
-      <c r="L5" s="4">
+      <c r="L5" s="1">
         <v>0.49</v>
       </c>
-      <c r="M5" s="10"/>
-      <c r="N5" s="6"/>
-      <c r="P5" s="12">
+      <c r="N5" s="3"/>
+      <c r="P5" s="6">
         <v>39750.317999999992</v>
       </c>
-      <c r="Q5" s="11">
+      <c r="Q5" s="6">
         <v>38972.533999999992</v>
       </c>
-      <c r="R5" s="11">
+      <c r="R5" s="6">
         <v>38111.41599999999</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>83</v>
       </c>
       <c r="D6" s="3">
@@ -3095,32 +3101,32 @@
       <c r="I6" s="3">
         <v>13.972191175982381</v>
       </c>
-      <c r="K6" s="4">
+      <c r="K6" s="1">
         <v>1.1200000000000001</v>
       </c>
-      <c r="L6" s="4">
+      <c r="L6" s="1">
         <v>0.77</v>
       </c>
-      <c r="M6" s="4"/>
-      <c r="N6" s="9"/>
-      <c r="P6" s="12">
+      <c r="M6" s="1"/>
+      <c r="N6" s="3"/>
+      <c r="P6" s="6">
         <v>98611.9</v>
       </c>
-      <c r="Q6" s="11">
+      <c r="Q6" s="6">
         <v>95306.317999999985</v>
       </c>
-      <c r="R6" s="11">
+      <c r="R6" s="6">
         <v>95195.205999999991</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="4" t="s">
         <v>218</v>
       </c>
       <c r="D7" s="3">
@@ -3141,31 +3147,31 @@
       <c r="I7" s="3">
         <v>12.726306405157043</v>
       </c>
-      <c r="K7" s="4">
+      <c r="K7" s="1">
         <v>1.21</v>
       </c>
-      <c r="L7" s="4">
+      <c r="L7" s="1">
         <v>0.53</v>
       </c>
       <c r="N7" s="3"/>
-      <c r="P7" s="12">
+      <c r="P7" s="6">
         <v>16916.802</v>
       </c>
-      <c r="Q7" s="11">
+      <c r="Q7" s="6">
         <v>15722.347999999998</v>
       </c>
-      <c r="R7" s="11">
+      <c r="R7" s="6">
         <v>15583.457999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8">
         <v>22</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="4" t="s">
         <v>219</v>
       </c>
       <c r="D8" s="3">
@@ -3186,32 +3192,32 @@
       <c r="I8" s="3">
         <v>26.747311827956988</v>
       </c>
-      <c r="K8" s="4">
+      <c r="K8" s="1">
         <v>2.09</v>
       </c>
-      <c r="L8" s="4">
+      <c r="L8" s="1">
         <v>0.15</v>
       </c>
-      <c r="M8" s="4"/>
-      <c r="N8" s="9"/>
-      <c r="P8" s="12">
+      <c r="M8" s="1"/>
+      <c r="N8" s="3"/>
+      <c r="P8" s="6">
         <v>8166.732</v>
       </c>
-      <c r="Q8" s="11">
+      <c r="Q8" s="6">
         <v>8083.3979999999992</v>
       </c>
-      <c r="R8" s="11">
+      <c r="R8" s="6">
         <v>7472.2819999999992</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="4" t="s">
         <v>220</v>
       </c>
       <c r="D9" s="3">
@@ -3232,31 +3238,31 @@
       <c r="I9" s="3">
         <v>62.427288821446624</v>
       </c>
-      <c r="K9" s="4">
+      <c r="K9" s="1">
         <v>1.39</v>
       </c>
-      <c r="L9" s="4">
+      <c r="L9" s="1">
         <v>0.32</v>
       </c>
       <c r="N9" s="3"/>
-      <c r="P9" s="12">
+      <c r="P9" s="6">
         <v>18333.48</v>
       </c>
-      <c r="Q9" s="11">
+      <c r="Q9" s="6">
         <v>17777.919999999998</v>
       </c>
-      <c r="R9" s="11">
+      <c r="R9" s="6">
         <v>16833.467999999997</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="4" t="s">
         <v>221</v>
       </c>
       <c r="D10" s="3">
@@ -3277,32 +3283,32 @@
       <c r="I10" s="3">
         <v>63.458458458458452</v>
       </c>
-      <c r="K10" s="4">
+      <c r="K10" s="1">
         <v>2.11</v>
       </c>
-      <c r="L10" s="4">
+      <c r="L10" s="1">
         <v>0.42</v>
       </c>
-      <c r="M10" s="4"/>
-      <c r="N10" s="9"/>
-      <c r="P10" s="12">
+      <c r="M10" s="1"/>
+      <c r="N10" s="3"/>
+      <c r="P10" s="6">
         <v>47555.936000000002</v>
       </c>
-      <c r="Q10" s="11">
+      <c r="Q10" s="6">
         <v>46555.927999999993</v>
       </c>
-      <c r="R10" s="11">
+      <c r="R10" s="6">
         <v>47361.49</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="4" t="s">
         <v>222</v>
       </c>
       <c r="D11" s="3">
@@ -3323,27 +3329,27 @@
       <c r="I11" s="3">
         <v>76.987316087701956</v>
       </c>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
       <c r="N11" s="3"/>
-      <c r="P11" s="12">
+      <c r="P11" s="6">
         <v>133167.73199999999</v>
       </c>
-      <c r="Q11" s="11">
+      <c r="Q11" s="6">
         <v>125889.89599999998</v>
       </c>
-      <c r="R11" s="11">
+      <c r="R11" s="6">
         <v>112473.12199999999</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="4" t="s">
         <v>223</v>
       </c>
       <c r="D12" s="3">
@@ -3364,32 +3370,32 @@
       <c r="I12" s="3">
         <v>71.816916246519668</v>
       </c>
-      <c r="K12" s="4">
+      <c r="K12" s="1">
         <v>3.86</v>
       </c>
-      <c r="L12" s="4">
+      <c r="L12" s="1">
         <v>0.23</v>
       </c>
-      <c r="M12" s="4"/>
-      <c r="N12" s="9"/>
-      <c r="P12" s="12">
+      <c r="M12" s="1"/>
+      <c r="N12" s="3"/>
+      <c r="P12" s="6">
         <v>15139.009999999998</v>
       </c>
-      <c r="Q12" s="11">
+      <c r="Q12" s="6">
         <v>14500.116</v>
       </c>
-      <c r="R12" s="11">
+      <c r="R12" s="6">
         <v>12888.991999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="4" t="s">
         <v>224</v>
       </c>
       <c r="D13" s="3">
@@ -3410,32 +3416,32 @@
       <c r="I13" s="3">
         <v>21.898520876240401</v>
       </c>
-      <c r="K13" s="4">
+      <c r="K13" s="1">
         <v>2.1800000000000002</v>
       </c>
-      <c r="L13" s="4">
+      <c r="L13" s="1">
         <v>0.25</v>
       </c>
-      <c r="M13" s="8"/>
-      <c r="N13" s="6"/>
-      <c r="P13" s="12">
+      <c r="M13" s="1"/>
+      <c r="N13" s="3"/>
+      <c r="P13" s="6">
         <v>13083.437999999998</v>
       </c>
-      <c r="Q13" s="11">
+      <c r="Q13" s="6">
         <v>12638.989999999998</v>
       </c>
-      <c r="R13" s="11">
+      <c r="R13" s="6">
         <v>11083.421999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="4" t="s">
         <v>102</v>
       </c>
       <c r="D14" s="3">
@@ -3456,32 +3462,32 @@
       <c r="I14" s="3">
         <v>7.4437869822485219</v>
       </c>
-      <c r="K14" s="4">
+      <c r="K14" s="1">
         <v>1.34</v>
       </c>
-      <c r="L14" s="4">
+      <c r="L14" s="1">
         <v>0.43</v>
       </c>
-      <c r="M14" s="8"/>
-      <c r="N14" s="6"/>
-      <c r="P14" s="12">
+      <c r="M14" s="1"/>
+      <c r="N14" s="3"/>
+      <c r="P14" s="6">
         <v>8972.2939999999981</v>
       </c>
-      <c r="Q14" s="11">
+      <c r="Q14" s="6">
         <v>8888.9599999999991</v>
       </c>
-      <c r="R14" s="11">
+      <c r="R14" s="6">
         <v>7777.8399999999992</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="4" t="s">
         <v>225</v>
       </c>
       <c r="D15" s="3">
@@ -3502,32 +3508,32 @@
       <c r="I15" s="3">
         <v>19.636963696369637</v>
       </c>
-      <c r="K15" s="4">
+      <c r="K15" s="1">
         <v>1.37</v>
       </c>
-      <c r="L15" s="4">
+      <c r="L15" s="1">
         <v>0.67</v>
       </c>
       <c r="M15" s="1"/>
-      <c r="N15" s="6"/>
-      <c r="P15" s="12">
+      <c r="N15" s="3"/>
+      <c r="P15" s="6">
         <v>16472.353999999999</v>
       </c>
-      <c r="Q15" s="11">
+      <c r="Q15" s="6">
         <v>16361.241999999998</v>
       </c>
-      <c r="R15" s="11">
+      <c r="R15" s="6">
         <v>12777.88</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
       <c r="B16" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="4" t="s">
         <v>130</v>
       </c>
       <c r="D16" s="3">
@@ -3548,76 +3554,232 @@
       <c r="I16" s="3">
         <v>35.063617533922312</v>
       </c>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
       <c r="N16" s="3"/>
-      <c r="P16" s="12">
+      <c r="P16" s="6">
         <v>30972.469999999998</v>
       </c>
-      <c r="Q16" s="11">
+      <c r="Q16" s="6">
         <v>30083.573999999997</v>
       </c>
-      <c r="R16" s="11">
+      <c r="R16" s="6">
         <v>29111.343999999997</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
       <c r="N17" s="3"/>
-      <c r="P17" s="12">
+      <c r="P17" s="6">
         <v>489170.5799999999</v>
       </c>
-      <c r="Q17" s="11">
+      <c r="Q17" s="6">
         <v>472253.77799999999</v>
       </c>
-      <c r="R17" s="11">
+      <c r="R17" s="6">
         <v>447281.35599999997</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="25" t="s">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A18" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="B18" s="25"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="25"/>
-      <c r="J18" s="25"/>
-      <c r="K18" s="25"/>
-      <c r="P18" s="6"/>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="25" t="s">
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="18"/>
+      <c r="P18" s="3"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A19" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="B19" s="25"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="25"/>
-      <c r="J19" s="25"/>
-      <c r="K19" s="25"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A18:K18"/>
     <mergeCell ref="A19:K19"/>
   </mergeCells>
+  <conditionalFormatting sqref="D3:I16">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:I16">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K4">
+    <cfRule type="colorScale" priority="30">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K5">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K6">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K8">
+    <cfRule type="colorScale" priority="21">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K9">
+    <cfRule type="colorScale" priority="24">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K14">
+    <cfRule type="colorScale" priority="27">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K3:L17">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K5:L5">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K6:L6">
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K8:L8">
+    <cfRule type="colorScale" priority="23">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K9:L9">
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K4:N4 N5 N3">
+    <cfRule type="colorScale" priority="32">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="K10:N13 K3:L9 K14:L17 E17:I17">
     <cfRule type="colorScale" priority="33">
       <colorScale>
@@ -3630,8 +3792,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K4:N4 N5 N3">
-    <cfRule type="colorScale" priority="32">
+  <conditionalFormatting sqref="K14:N14 N15">
+    <cfRule type="colorScale" priority="29">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3642,6 +3804,46 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="L5">
+    <cfRule type="colorScale" priority="15">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L6">
+    <cfRule type="colorScale" priority="19">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L8">
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L9">
+    <cfRule type="colorScale" priority="25">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="L4:N4 N5 N3">
     <cfRule type="colorScale" priority="31">
       <colorScale>
@@ -3652,8 +3854,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K4">
-    <cfRule type="colorScale" priority="30">
+  <conditionalFormatting sqref="L14:N14 N15">
+    <cfRule type="colorScale" priority="28">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -3662,8 +3864,40 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K14:N14 N15">
-    <cfRule type="colorScale" priority="29">
+  <conditionalFormatting sqref="M6:N9">
+    <cfRule type="colorScale" priority="17">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N16:N17">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P3:P16 P18">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3674,242 +3908,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L14:N14 N15">
-    <cfRule type="colorScale" priority="28">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K14">
-    <cfRule type="colorScale" priority="27">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K9:L9">
-    <cfRule type="colorScale" priority="26">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L9">
-    <cfRule type="colorScale" priority="25">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K9">
-    <cfRule type="colorScale" priority="24">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K8:L8">
-    <cfRule type="colorScale" priority="23">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L8">
-    <cfRule type="colorScale" priority="22">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K8">
-    <cfRule type="colorScale" priority="21">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K6:L6">
-    <cfRule type="colorScale" priority="20">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L6">
-    <cfRule type="colorScale" priority="19">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K6">
-    <cfRule type="colorScale" priority="18">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M6:N9">
-    <cfRule type="colorScale" priority="17">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K5:L5">
-    <cfRule type="colorScale" priority="16">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L5">
-    <cfRule type="colorScale" priority="15">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K5">
-    <cfRule type="colorScale" priority="14">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N16:N17">
-    <cfRule type="colorScale" priority="13">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P3:P16 P18">
-    <cfRule type="colorScale" priority="11">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P3:P16 P18">
-    <cfRule type="colorScale" priority="10">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K3:L17">
-    <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="P3:R16">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
         <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E3:I16">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3:I16">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
@@ -3928,51 +3932,51 @@
       <selection activeCell="S10" sqref="S10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" customWidth="1"/>
+    <col min="5" max="5" width="12.109375" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" customWidth="1"/>
     <col min="7" max="7" width="14" customWidth="1"/>
-    <col min="8" max="8" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="11.42578125" customWidth="1"/>
-    <col min="13" max="15" width="21.28515625" customWidth="1"/>
-    <col min="16" max="16" width="11.42578125" customWidth="1"/>
-    <col min="17" max="17" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="20" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.88671875" customWidth="1"/>
+    <col min="10" max="10" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="11.44140625" customWidth="1"/>
+    <col min="13" max="15" width="21.33203125" customWidth="1"/>
+    <col min="16" max="16" width="11.44140625" customWidth="1"/>
+    <col min="17" max="17" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="18" max="20" width="15.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="J1" s="7" t="s">
         <v>207</v>
       </c>
       <c r="M1" t="s">
@@ -3997,8 +4001,8 @@
         <v>201</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="D2" s="23" t="s">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="D2" s="16" t="s">
         <v>209</v>
       </c>
       <c r="E2" t="s">
@@ -4041,100 +4045,100 @@
         <v>196</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3">
         <v>8</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="5"/>
+      <c r="D3" s="4"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
-      <c r="M3" s="12">
+      <c r="M3" s="6">
         <v>2361.13</v>
       </c>
-      <c r="N3" s="11">
+      <c r="N3" s="6">
         <v>2250.0179999999996</v>
       </c>
-      <c r="O3" s="11">
+      <c r="O3" s="6">
         <v>2166.6840000000002</v>
       </c>
       <c r="Q3">
         <v>1</v>
       </c>
-      <c r="R3" s="11">
+      <c r="R3" s="6">
         <f>M3/1000</f>
         <v>2.3611300000000002</v>
       </c>
-      <c r="S3" s="11">
+      <c r="S3" s="6">
         <f t="shared" ref="S3:T17" si="0">N3/1000</f>
         <v>2.2500179999999994</v>
       </c>
-      <c r="T3" s="11">
+      <c r="T3" s="6">
         <f t="shared" si="0"/>
         <v>2.1666840000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="5"/>
+      <c r="D4" s="4"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
-      <c r="K4" s="8"/>
-      <c r="M4" s="12">
+      <c r="K4" s="1"/>
+      <c r="M4" s="6">
         <v>39666.983999999989</v>
       </c>
-      <c r="N4" s="11">
+      <c r="N4" s="6">
         <v>39222.535999999993</v>
       </c>
-      <c r="O4" s="11">
+      <c r="O4" s="6">
         <v>38444.752</v>
       </c>
       <c r="Q4">
         <v>2</v>
       </c>
-      <c r="R4" s="11">
+      <c r="R4" s="6">
         <f t="shared" ref="R4:R16" si="1">M4/1000</f>
         <v>39.666983999999992</v>
       </c>
-      <c r="S4" s="11">
+      <c r="S4" s="6">
         <f t="shared" si="0"/>
         <v>39.222535999999991</v>
       </c>
-      <c r="T4" s="11">
+      <c r="T4" s="6">
         <f t="shared" si="0"/>
         <v>38.444752000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>203</v>
       </c>
       <c r="E5" s="3"/>
@@ -4144,28 +4148,27 @@
         <v>59</v>
       </c>
       <c r="I5" s="3"/>
-      <c r="K5" s="10"/>
-      <c r="M5" s="12">
+      <c r="M5" s="6">
         <v>39750.317999999992</v>
       </c>
-      <c r="N5" s="11">
+      <c r="N5" s="6">
         <v>38972.533999999992</v>
       </c>
-      <c r="O5" s="11">
+      <c r="O5" s="6">
         <v>38111.41599999999</v>
       </c>
       <c r="Q5">
         <v>3</v>
       </c>
-      <c r="R5" s="11">
+      <c r="R5" s="6">
         <f t="shared" si="1"/>
         <v>39.750317999999993</v>
       </c>
-      <c r="S5" s="11">
+      <c r="S5" s="6">
         <f t="shared" si="0"/>
         <v>38.972533999999989</v>
       </c>
-      <c r="T5" s="11">
+      <c r="T5" s="6">
         <f t="shared" si="0"/>
         <v>38.111415999999991</v>
       </c>
@@ -4173,17 +4176,17 @@
         <v>204</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="4" t="s">
         <v>200</v>
       </c>
       <c r="E6" s="3"/>
@@ -4193,28 +4196,28 @@
       <c r="I6" s="3">
         <v>49</v>
       </c>
-      <c r="K6" s="4"/>
-      <c r="M6" s="12">
+      <c r="K6" s="1"/>
+      <c r="M6" s="6">
         <v>98611.9</v>
       </c>
-      <c r="N6" s="11">
+      <c r="N6" s="6">
         <v>95306.317999999985</v>
       </c>
-      <c r="O6" s="11">
+      <c r="O6" s="6">
         <v>95195.205999999991</v>
       </c>
       <c r="Q6">
         <v>4</v>
       </c>
-      <c r="R6" s="11">
+      <c r="R6" s="6">
         <f t="shared" si="1"/>
         <v>98.611899999999991</v>
       </c>
-      <c r="S6" s="11">
+      <c r="S6" s="6">
         <f t="shared" si="0"/>
         <v>95.30631799999999</v>
       </c>
-      <c r="T6" s="11">
+      <c r="T6" s="6">
         <f t="shared" si="0"/>
         <v>95.195205999999985</v>
       </c>
@@ -4222,141 +4225,141 @@
         <v>202</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="5"/>
+      <c r="D7" s="4"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
-      <c r="M7" s="12">
+      <c r="M7" s="6">
         <v>16916.802</v>
       </c>
-      <c r="N7" s="11">
+      <c r="N7" s="6">
         <v>15722.347999999998</v>
       </c>
-      <c r="O7" s="11">
+      <c r="O7" s="6">
         <v>15583.457999999999</v>
       </c>
       <c r="Q7">
         <v>5</v>
       </c>
-      <c r="R7" s="11">
+      <c r="R7" s="6">
         <f t="shared" si="1"/>
         <v>16.916802000000001</v>
       </c>
-      <c r="S7" s="11">
+      <c r="S7" s="6">
         <f t="shared" si="0"/>
         <v>15.722347999999998</v>
       </c>
-      <c r="T7" s="11">
+      <c r="T7" s="6">
         <f t="shared" si="0"/>
         <v>15.583457999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8">
         <v>22</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="5"/>
+      <c r="D8" s="4"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
-      <c r="K8" s="4"/>
-      <c r="M8" s="12">
+      <c r="K8" s="1"/>
+      <c r="M8" s="6">
         <v>8166.732</v>
       </c>
-      <c r="N8" s="11">
+      <c r="N8" s="6">
         <v>8083.3979999999992</v>
       </c>
-      <c r="O8" s="11">
+      <c r="O8" s="6">
         <v>7472.2819999999992</v>
       </c>
       <c r="Q8">
         <v>6</v>
       </c>
-      <c r="R8" s="11">
+      <c r="R8" s="6">
         <f t="shared" si="1"/>
         <v>8.1667319999999997</v>
       </c>
-      <c r="S8" s="11">
+      <c r="S8" s="6">
         <f t="shared" si="0"/>
         <v>8.083397999999999</v>
       </c>
-      <c r="T8" s="11">
+      <c r="T8" s="6">
         <f t="shared" si="0"/>
         <v>7.472281999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="5"/>
+      <c r="D9" s="4"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
-      <c r="M9" s="12">
+      <c r="M9" s="6">
         <v>18333.48</v>
       </c>
-      <c r="N9" s="11">
+      <c r="N9" s="6">
         <v>17777.919999999998</v>
       </c>
-      <c r="O9" s="11">
+      <c r="O9" s="6">
         <v>16833.467999999997</v>
       </c>
       <c r="Q9">
         <v>7</v>
       </c>
-      <c r="R9" s="11">
+      <c r="R9" s="6">
         <f t="shared" si="1"/>
         <v>18.333479999999998</v>
       </c>
-      <c r="S9" s="11">
+      <c r="S9" s="6">
         <f t="shared" si="0"/>
         <v>17.777919999999998</v>
       </c>
-      <c r="T9" s="11">
+      <c r="T9" s="6">
         <f t="shared" si="0"/>
         <v>16.833467999999996</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="4" t="s">
         <v>199</v>
       </c>
       <c r="E10" s="3"/>
@@ -4366,43 +4369,43 @@
       <c r="I10" s="3">
         <v>20</v>
       </c>
-      <c r="K10" s="4"/>
-      <c r="M10" s="12">
+      <c r="K10" s="1"/>
+      <c r="M10" s="6">
         <v>47555.936000000002</v>
       </c>
-      <c r="N10" s="11">
+      <c r="N10" s="6">
         <v>46555.927999999993</v>
       </c>
-      <c r="O10" s="11">
+      <c r="O10" s="6">
         <v>47361.49</v>
       </c>
       <c r="Q10">
         <v>8</v>
       </c>
-      <c r="R10" s="11">
+      <c r="R10" s="6">
         <f t="shared" si="1"/>
         <v>47.555936000000003</v>
       </c>
-      <c r="S10" s="11">
+      <c r="S10" s="6">
         <f t="shared" si="0"/>
         <v>46.555927999999994</v>
       </c>
-      <c r="T10" s="11">
+      <c r="T10" s="6">
         <f t="shared" si="0"/>
         <v>47.361489999999996</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="4" t="s">
         <v>197</v>
       </c>
       <c r="E11" s="3"/>
@@ -4413,317 +4416,363 @@
       <c r="J11" s="3">
         <v>90</v>
       </c>
-      <c r="M11" s="12">
+      <c r="M11" s="6">
         <v>133167.73199999999</v>
       </c>
-      <c r="N11" s="11">
+      <c r="N11" s="6">
         <v>125889.89599999998</v>
       </c>
-      <c r="O11" s="11">
+      <c r="O11" s="6">
         <v>112473.12199999999</v>
       </c>
       <c r="Q11">
         <v>9</v>
       </c>
-      <c r="R11" s="11">
+      <c r="R11" s="6">
         <f t="shared" si="1"/>
         <v>133.167732</v>
       </c>
-      <c r="S11" s="11">
+      <c r="S11" s="6">
         <f t="shared" si="0"/>
         <v>125.88989599999998</v>
       </c>
-      <c r="T11" s="11">
+      <c r="T11" s="6">
         <f t="shared" si="0"/>
         <v>112.47312199999999</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>9</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="5"/>
+      <c r="D12" s="4"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
-      <c r="M12" s="12">
+      <c r="M12" s="6">
         <v>15139.009999999998</v>
       </c>
-      <c r="N12" s="11">
+      <c r="N12" s="6">
         <v>14500.116</v>
       </c>
-      <c r="O12" s="11">
+      <c r="O12" s="6">
         <v>12888.991999999998</v>
       </c>
       <c r="Q12">
         <v>10</v>
       </c>
-      <c r="R12" s="11">
+      <c r="R12" s="6">
         <f t="shared" si="1"/>
         <v>15.139009999999999</v>
       </c>
-      <c r="S12" s="11">
+      <c r="S12" s="6">
         <f t="shared" si="0"/>
         <v>14.500116</v>
       </c>
-      <c r="T12" s="11">
+      <c r="T12" s="6">
         <f t="shared" si="0"/>
         <v>12.888991999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>10</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="5"/>
+      <c r="D13" s="4"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
-      <c r="K13" s="4"/>
-      <c r="M13" s="12">
+      <c r="K13" s="1"/>
+      <c r="M13" s="6">
         <v>13083.437999999998</v>
       </c>
-      <c r="N13" s="11">
+      <c r="N13" s="6">
         <v>12638.989999999998</v>
       </c>
-      <c r="O13" s="11">
+      <c r="O13" s="6">
         <v>11083.421999999999</v>
       </c>
       <c r="Q13">
         <v>11</v>
       </c>
-      <c r="R13" s="11">
+      <c r="R13" s="6">
         <f t="shared" si="1"/>
         <v>13.083437999999997</v>
       </c>
-      <c r="S13" s="11">
+      <c r="S13" s="6">
         <f t="shared" si="0"/>
         <v>12.638989999999998</v>
       </c>
-      <c r="T13" s="11">
+      <c r="T13" s="6">
         <f t="shared" si="0"/>
         <v>11.083421999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>11</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="5"/>
+      <c r="D14" s="4"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
-      <c r="K14" s="8"/>
-      <c r="M14" s="12">
+      <c r="K14" s="1"/>
+      <c r="M14" s="6">
         <v>8972.2939999999981</v>
       </c>
-      <c r="N14" s="11">
+      <c r="N14" s="6">
         <v>8888.9599999999991</v>
       </c>
-      <c r="O14" s="11">
+      <c r="O14" s="6">
         <v>7777.8399999999992</v>
       </c>
       <c r="Q14">
         <v>12</v>
       </c>
-      <c r="R14" s="11">
+      <c r="R14" s="6">
         <f t="shared" si="1"/>
         <v>8.972293999999998</v>
       </c>
-      <c r="S14" s="11">
+      <c r="S14" s="6">
         <f t="shared" si="0"/>
         <v>8.8889599999999991</v>
       </c>
-      <c r="T14" s="11">
+      <c r="T14" s="6">
         <f t="shared" si="0"/>
         <v>7.7778399999999994</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>12</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D15" s="5"/>
+      <c r="D15" s="4"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
-      <c r="K15" s="8"/>
-      <c r="M15" s="12">
+      <c r="K15" s="1"/>
+      <c r="M15" s="6">
         <v>16472.353999999999</v>
       </c>
-      <c r="N15" s="11">
+      <c r="N15" s="6">
         <v>16361.241999999998</v>
       </c>
-      <c r="O15" s="11">
+      <c r="O15" s="6">
         <v>12777.88</v>
       </c>
       <c r="Q15">
         <v>13</v>
       </c>
-      <c r="R15" s="11">
+      <c r="R15" s="6">
         <f t="shared" si="1"/>
         <v>16.472353999999999</v>
       </c>
-      <c r="S15" s="11">
+      <c r="S15" s="6">
         <f t="shared" si="0"/>
         <v>16.361241999999997</v>
       </c>
-      <c r="T15" s="11">
+      <c r="T15" s="6">
         <f t="shared" si="0"/>
         <v>12.77788</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>13</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D16" s="5"/>
+      <c r="D16" s="4"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="K16" s="1"/>
-      <c r="M16" s="12">
+      <c r="M16" s="6">
         <v>30972.469999999998</v>
       </c>
-      <c r="N16" s="11">
+      <c r="N16" s="6">
         <v>30083.573999999997</v>
       </c>
-      <c r="O16" s="11">
+      <c r="O16" s="6">
         <v>29111.343999999997</v>
       </c>
       <c r="Q16">
         <v>14</v>
       </c>
-      <c r="R16" s="11">
+      <c r="R16" s="6">
         <f t="shared" si="1"/>
         <v>30.972469999999998</v>
       </c>
-      <c r="S16" s="11">
+      <c r="S16" s="6">
         <f t="shared" si="0"/>
         <v>30.083573999999995</v>
       </c>
-      <c r="T16" s="11">
+      <c r="T16" s="6">
         <f t="shared" si="0"/>
         <v>29.111343999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>14</v>
       </c>
       <c r="B17" t="s">
         <v>2</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D17" s="5"/>
+      <c r="D17" s="4"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
-      <c r="M17" s="12">
+      <c r="M17" s="6">
         <v>489170.5799999999</v>
       </c>
-      <c r="N17" s="11">
+      <c r="N17" s="6">
         <v>472253.77799999999</v>
       </c>
-      <c r="O17" s="11">
+      <c r="O17" s="6">
         <v>447281.35599999997</v>
       </c>
-      <c r="R17" s="11">
+      <c r="R17" s="6">
         <f t="shared" ref="R17" si="2">M17/1000</f>
         <v>489.17057999999992</v>
       </c>
-      <c r="S17" s="11">
+      <c r="S17" s="6">
         <f t="shared" si="0"/>
         <v>472.25377800000001</v>
       </c>
-      <c r="T17" s="11">
+      <c r="T17" s="6">
         <f t="shared" si="0"/>
         <v>447.28135599999996</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A19" s="25"/>
-      <c r="B19" s="25"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="25"/>
-      <c r="J19" s="25"/>
-      <c r="M19" s="6"/>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A20" s="25"/>
-      <c r="B20" s="25"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="25"/>
-      <c r="H20" s="25"/>
-      <c r="I20" s="25"/>
-      <c r="J20" s="25"/>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A19" s="18"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18"/>
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A20" s="18"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A19:J19"/>
     <mergeCell ref="A20:J20"/>
   </mergeCells>
+  <conditionalFormatting sqref="E3:I17">
+    <cfRule type="colorScale" priority="113">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3:I17">
+    <cfRule type="colorScale" priority="107">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J11">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="K4">
     <cfRule type="colorScale" priority="75">
       <colorScale>
@@ -4735,13 +4784,35 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K4">
     <cfRule type="colorScale" priority="76">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
         <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K6:K9">
+    <cfRule type="colorScale" priority="79">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K10:K14 F18:I18">
+    <cfRule type="colorScale" priority="82">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
@@ -4757,37 +4828,11 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K15">
     <cfRule type="colorScale" priority="78">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
         <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K6:K9">
-    <cfRule type="colorScale" priority="79">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K10:K14 F18:I18">
-    <cfRule type="colorScale" priority="82">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
@@ -4803,8 +4848,6 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M3:M16 M19">
     <cfRule type="colorScale" priority="86">
       <colorScale>
         <cfvo type="min"/>
@@ -4820,54 +4863,6 @@
         <cfvo type="min"/>
         <cfvo type="max"/>
         <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F3:I17">
-    <cfRule type="colorScale" priority="107">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E3:I17">
-    <cfRule type="colorScale" priority="113">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J11">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J11">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
@@ -4898,60 +4893,60 @@
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.5703125" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.5546875" customWidth="1"/>
+    <col min="5" max="5" width="15.44140625" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" customWidth="1"/>
     <col min="7" max="7" width="14" customWidth="1"/>
-    <col min="8" max="8" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="12.7109375" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.42578125" customWidth="1"/>
+    <col min="8" max="8" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="12.6640625" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.44140625" customWidth="1"/>
     <col min="17" max="17" width="22" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="22" customWidth="1"/>
-    <col min="19" max="19" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="15.85546875" customWidth="1"/>
+    <col min="19" max="19" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="15.88671875" customWidth="1"/>
     <col min="27" max="27" width="11" customWidth="1"/>
-    <col min="28" max="28" width="11.5703125" customWidth="1"/>
+    <col min="28" max="28" width="11.5546875" customWidth="1"/>
     <col min="29" max="29" width="14" customWidth="1"/>
     <col min="30" max="30" width="13" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="25.28515625" customWidth="1"/>
-    <col min="32" max="32" width="9.140625" customWidth="1"/>
-    <col min="33" max="33" width="12.28515625" customWidth="1"/>
-    <col min="34" max="34" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="12.85546875" customWidth="1"/>
-    <col min="36" max="36" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="8.85546875" customWidth="1"/>
-    <col min="39" max="39" width="11.7109375" customWidth="1"/>
-    <col min="40" max="40" width="10.42578125" customWidth="1"/>
-    <col min="41" max="41" width="11.85546875" customWidth="1"/>
-    <col min="43" max="43" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="25.33203125" customWidth="1"/>
+    <col min="32" max="32" width="9.109375" customWidth="1"/>
+    <col min="33" max="33" width="12.33203125" customWidth="1"/>
+    <col min="34" max="34" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="12.88671875" customWidth="1"/>
+    <col min="36" max="36" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="8.88671875" customWidth="1"/>
+    <col min="39" max="39" width="11.6640625" customWidth="1"/>
+    <col min="40" max="40" width="10.44140625" customWidth="1"/>
+    <col min="41" max="41" width="11.88671875" customWidth="1"/>
+    <col min="43" max="43" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="14.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A1" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-    </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+    </row>
+    <row r="2" spans="1:40" x14ac:dyDescent="0.3">
       <c r="Q2" t="s">
         <v>48</v>
       </c>
@@ -4971,11 +4966,11 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="5" t="s">
         <v>36</v>
       </c>
       <c r="C3" t="s">
@@ -5008,18 +5003,18 @@
       <c r="O3" t="s">
         <v>29</v>
       </c>
-      <c r="Q3" s="26" t="s">
+      <c r="Q3" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="R3" s="26"/>
-      <c r="S3" s="26"/>
-      <c r="T3" s="26" t="s">
+      <c r="R3" s="20"/>
+      <c r="S3" s="20"/>
+      <c r="T3" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="U3" s="26"/>
-      <c r="V3" s="26"/>
-    </row>
-    <row r="4" spans="1:40" ht="96" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U3" s="20"/>
+      <c r="V3" s="20"/>
+    </row>
+    <row r="4" spans="1:40" ht="96" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F4" t="s">
         <v>28</v>
       </c>
@@ -5038,68 +5033,68 @@
       <c r="O4" t="s">
         <v>27</v>
       </c>
-      <c r="Q4" s="26" t="s">
+      <c r="Q4" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="R4" s="26"/>
-      <c r="S4" s="26"/>
-      <c r="T4" s="26" t="s">
+      <c r="R4" s="20"/>
+      <c r="S4" s="20"/>
+      <c r="T4" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="U4" s="26"/>
-      <c r="V4" s="26"/>
-      <c r="Z4" s="14"/>
-      <c r="AA4" s="15" t="s">
+      <c r="U4" s="20"/>
+      <c r="V4" s="20"/>
+      <c r="Z4" s="8"/>
+      <c r="AA4" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="AB4" s="15" t="s">
+      <c r="AB4" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="AC4" s="15" t="s">
+      <c r="AC4" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="AD4" s="15" t="s">
+      <c r="AD4" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="AE4" s="15" t="s">
+      <c r="AE4" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="AF4" s="15" t="s">
+      <c r="AF4" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="AG4" s="15" t="s">
+      <c r="AG4" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="AH4" s="15" t="s">
+      <c r="AH4" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="AI4" s="15" t="s">
+      <c r="AI4" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="AJ4" s="15" t="s">
+      <c r="AJ4" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="AK4" s="15" t="s">
+      <c r="AK4" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="AL4" s="15" t="s">
+      <c r="AL4" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="AM4" s="15" t="s">
+      <c r="AM4" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="AN4" s="15" t="s">
+      <c r="AN4" s="9" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>1</v>
       </c>
       <c r="B5">
         <v>8</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>26</v>
       </c>
       <c r="D5" t="s">
@@ -5120,49 +5115,49 @@
       <c r="J5" s="1">
         <v>62</v>
       </c>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="O5" s="6">
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="O5" s="3">
         <v>19</v>
       </c>
-      <c r="Q5" s="12">
+      <c r="Q5" s="6">
         <f>8.3-0.1</f>
         <v>8.2000000000000011</v>
       </c>
-      <c r="R5" s="12">
+      <c r="R5" s="6">
         <v>0.18</v>
       </c>
-      <c r="S5" s="6"/>
-      <c r="Z5" s="16" t="s">
+      <c r="S5" s="3"/>
+      <c r="Z5" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="AA5" s="17"/>
-      <c r="AB5" s="17"/>
-      <c r="AC5" s="17"/>
-      <c r="AD5" s="17"/>
-      <c r="AE5" s="17"/>
-      <c r="AF5" s="17"/>
-      <c r="AG5" s="17"/>
-      <c r="AH5" s="17"/>
-      <c r="AI5" s="17" t="s">
+      <c r="AA5" s="11"/>
+      <c r="AB5" s="11"/>
+      <c r="AC5" s="11"/>
+      <c r="AD5" s="11"/>
+      <c r="AE5" s="11"/>
+      <c r="AF5" s="11"/>
+      <c r="AG5" s="11"/>
+      <c r="AH5" s="11"/>
+      <c r="AI5" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="AJ5" s="17"/>
-      <c r="AK5" s="17" t="s">
+      <c r="AJ5" s="11"/>
+      <c r="AK5" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="AL5" s="17"/>
-      <c r="AM5" s="17"/>
-      <c r="AN5" s="17"/>
-    </row>
-    <row r="6" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AL5" s="11"/>
+      <c r="AM5" s="11"/>
+      <c r="AN5" s="11"/>
+    </row>
+    <row r="6" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>2</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>24</v>
       </c>
       <c r="D6" t="s">
@@ -5183,54 +5178,54 @@
       <c r="J6" s="1">
         <v>0</v>
       </c>
-      <c r="L6" s="4">
+      <c r="L6" s="1">
         <v>1.51</v>
       </c>
-      <c r="M6" s="4">
+      <c r="M6" s="1">
         <v>0.42</v>
       </c>
-      <c r="N6" s="8"/>
-      <c r="O6" s="6">
+      <c r="N6" s="1"/>
+      <c r="O6" s="3">
         <v>32</v>
       </c>
-      <c r="Q6" s="12">
+      <c r="Q6" s="6">
         <f>145.3-1.9</f>
         <v>143.4</v>
       </c>
-      <c r="R6" s="12">
+      <c r="R6" s="6">
         <v>12</v>
       </c>
-      <c r="S6" s="6"/>
-      <c r="Z6" s="16" t="s">
+      <c r="S6" s="3"/>
+      <c r="Z6" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="AA6" s="17"/>
-      <c r="AB6" s="17"/>
-      <c r="AC6" s="17"/>
-      <c r="AD6" s="17"/>
-      <c r="AE6" s="17"/>
-      <c r="AF6" s="17"/>
-      <c r="AG6" s="17"/>
-      <c r="AH6" s="17"/>
-      <c r="AI6" s="17"/>
-      <c r="AJ6" s="17" t="s">
+      <c r="AA6" s="11"/>
+      <c r="AB6" s="11"/>
+      <c r="AC6" s="11"/>
+      <c r="AD6" s="11"/>
+      <c r="AE6" s="11"/>
+      <c r="AF6" s="11"/>
+      <c r="AG6" s="11"/>
+      <c r="AH6" s="11"/>
+      <c r="AI6" s="11"/>
+      <c r="AJ6" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="AK6" s="17" t="s">
+      <c r="AK6" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="AL6" s="17"/>
-      <c r="AM6" s="17"/>
-      <c r="AN6" s="17"/>
-    </row>
-    <row r="7" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AL6" s="11"/>
+      <c r="AM6" s="11"/>
+      <c r="AN6" s="11"/>
+    </row>
+    <row r="7" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>3</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="4" t="s">
         <v>22</v>
       </c>
       <c r="D7" t="s">
@@ -5251,54 +5246,53 @@
       <c r="J7" s="1">
         <v>0</v>
       </c>
-      <c r="L7" s="4">
+      <c r="L7" s="1">
         <v>4.21</v>
       </c>
-      <c r="M7" s="4">
+      <c r="M7" s="1">
         <v>0.49</v>
       </c>
-      <c r="N7" s="10"/>
-      <c r="O7" s="6">
+      <c r="O7" s="3">
         <v>28</v>
       </c>
-      <c r="Q7" s="12">
+      <c r="Q7" s="6">
         <f>154.3-1.5</f>
         <v>152.80000000000001</v>
       </c>
-      <c r="R7" s="12">
+      <c r="R7" s="6">
         <v>28</v>
       </c>
-      <c r="S7" s="6"/>
-      <c r="Z7" s="16" t="s">
+      <c r="S7" s="3"/>
+      <c r="Z7" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="AA7" s="17"/>
-      <c r="AB7" s="17"/>
-      <c r="AC7" s="17"/>
-      <c r="AD7" s="17" t="s">
+      <c r="AA7" s="11"/>
+      <c r="AB7" s="11"/>
+      <c r="AC7" s="11"/>
+      <c r="AD7" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="AE7" s="17" t="s">
+      <c r="AE7" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="AF7" s="17"/>
-      <c r="AG7" s="17"/>
-      <c r="AH7" s="17"/>
-      <c r="AI7" s="17"/>
-      <c r="AJ7" s="17"/>
-      <c r="AK7" s="17"/>
-      <c r="AL7" s="17"/>
-      <c r="AM7" s="17"/>
-      <c r="AN7" s="17"/>
-    </row>
-    <row r="8" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AF7" s="11"/>
+      <c r="AG7" s="11"/>
+      <c r="AH7" s="11"/>
+      <c r="AI7" s="11"/>
+      <c r="AJ7" s="11"/>
+      <c r="AK7" s="11"/>
+      <c r="AL7" s="11"/>
+      <c r="AM7" s="11"/>
+      <c r="AN7" s="11"/>
+    </row>
+    <row r="8" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>4</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="4" t="s">
         <v>20</v>
       </c>
       <c r="D8" t="s">
@@ -5319,24 +5313,24 @@
       <c r="J8" s="1">
         <v>13</v>
       </c>
-      <c r="L8" s="4">
+      <c r="L8" s="1">
         <v>1.1200000000000001</v>
       </c>
-      <c r="M8" s="4">
+      <c r="M8" s="1">
         <v>0.77</v>
       </c>
-      <c r="N8" s="4"/>
-      <c r="O8" s="9">
+      <c r="N8" s="1"/>
+      <c r="O8" s="3">
         <v>21</v>
       </c>
-      <c r="Q8" s="12">
+      <c r="Q8" s="6">
         <f>400.1-7.2</f>
         <v>392.90000000000003</v>
       </c>
-      <c r="R8" s="12">
+      <c r="R8" s="6">
         <v>112</v>
       </c>
-      <c r="S8" s="6">
+      <c r="S8" s="3">
         <v>112</v>
       </c>
       <c r="U8">
@@ -5345,36 +5339,36 @@
       <c r="V8">
         <v>105</v>
       </c>
-      <c r="Z8" s="16" t="s">
+      <c r="Z8" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="AA8" s="17"/>
-      <c r="AB8" s="17"/>
-      <c r="AC8" s="17"/>
-      <c r="AD8" s="17"/>
-      <c r="AE8" s="17"/>
-      <c r="AF8" s="17"/>
-      <c r="AG8" s="17" t="s">
+      <c r="AA8" s="11"/>
+      <c r="AB8" s="11"/>
+      <c r="AC8" s="11"/>
+      <c r="AD8" s="11"/>
+      <c r="AE8" s="11"/>
+      <c r="AF8" s="11"/>
+      <c r="AG8" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="AH8" s="17" t="s">
+      <c r="AH8" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="AI8" s="17"/>
-      <c r="AJ8" s="17"/>
-      <c r="AK8" s="17"/>
-      <c r="AL8" s="17"/>
-      <c r="AM8" s="17"/>
-      <c r="AN8" s="17"/>
-    </row>
-    <row r="9" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AI8" s="11"/>
+      <c r="AJ8" s="11"/>
+      <c r="AK8" s="11"/>
+      <c r="AL8" s="11"/>
+      <c r="AM8" s="11"/>
+      <c r="AN8" s="11"/>
+    </row>
+    <row r="9" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>5</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="4" t="s">
         <v>18</v>
       </c>
       <c r="D9" t="s">
@@ -5395,49 +5389,49 @@
       <c r="J9" s="1">
         <v>13</v>
       </c>
-      <c r="L9" s="4">
+      <c r="L9" s="1">
         <v>1.21</v>
       </c>
-      <c r="M9" s="4">
+      <c r="M9" s="1">
         <v>0.53</v>
       </c>
       <c r="O9" s="3">
         <v>15</v>
       </c>
-      <c r="Q9" s="12">
+      <c r="Q9" s="6">
         <f>64.5-1.1</f>
         <v>63.4</v>
       </c>
-      <c r="R9" s="12"/>
-      <c r="S9" s="6"/>
-      <c r="Z9" s="16" t="s">
+      <c r="R9" s="6"/>
+      <c r="S9" s="3"/>
+      <c r="Z9" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="AA9" s="17" t="s">
+      <c r="AA9" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="AB9" s="17"/>
-      <c r="AC9" s="17"/>
-      <c r="AD9" s="17"/>
-      <c r="AE9" s="17"/>
-      <c r="AF9" s="17"/>
-      <c r="AG9" s="17"/>
-      <c r="AH9" s="17"/>
-      <c r="AI9" s="17"/>
-      <c r="AJ9" s="17"/>
-      <c r="AK9" s="17"/>
-      <c r="AL9" s="17"/>
-      <c r="AM9" s="17"/>
-      <c r="AN9" s="17"/>
-    </row>
-    <row r="10" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AB9" s="11"/>
+      <c r="AC9" s="11"/>
+      <c r="AD9" s="11"/>
+      <c r="AE9" s="11"/>
+      <c r="AF9" s="11"/>
+      <c r="AG9" s="11"/>
+      <c r="AH9" s="11"/>
+      <c r="AI9" s="11"/>
+      <c r="AJ9" s="11"/>
+      <c r="AK9" s="11"/>
+      <c r="AL9" s="11"/>
+      <c r="AM9" s="11"/>
+      <c r="AN9" s="11"/>
+    </row>
+    <row r="10" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>6</v>
       </c>
       <c r="B10">
         <v>22</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="4" t="s">
         <v>17</v>
       </c>
       <c r="D10" t="s">
@@ -5461,50 +5455,50 @@
       <c r="K10" t="s">
         <v>91</v>
       </c>
-      <c r="L10" s="4">
+      <c r="L10" s="1">
         <v>2.09</v>
       </c>
-      <c r="M10" s="4">
+      <c r="M10" s="1">
         <v>0.15</v>
       </c>
-      <c r="N10" s="4"/>
-      <c r="O10" s="9">
+      <c r="N10" s="1"/>
+      <c r="O10" s="3">
         <v>16</v>
       </c>
-      <c r="Q10" s="12">
+      <c r="Q10" s="6">
         <f>31.4-0.4</f>
         <v>31</v>
       </c>
-      <c r="R10" s="12"/>
-      <c r="S10" s="6"/>
-      <c r="Z10" s="16" t="s">
+      <c r="R10" s="6"/>
+      <c r="S10" s="3"/>
+      <c r="Z10" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="AA10" s="17"/>
-      <c r="AB10" s="17" t="s">
+      <c r="AA10" s="11"/>
+      <c r="AB10" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="AC10" s="17"/>
-      <c r="AD10" s="17"/>
-      <c r="AE10" s="17"/>
-      <c r="AF10" s="17"/>
-      <c r="AG10" s="17"/>
-      <c r="AH10" s="17"/>
-      <c r="AI10" s="17"/>
-      <c r="AJ10" s="17"/>
-      <c r="AK10" s="17"/>
-      <c r="AL10" s="17"/>
-      <c r="AM10" s="17"/>
-      <c r="AN10" s="17"/>
-    </row>
-    <row r="11" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AC10" s="11"/>
+      <c r="AD10" s="11"/>
+      <c r="AE10" s="11"/>
+      <c r="AF10" s="11"/>
+      <c r="AG10" s="11"/>
+      <c r="AH10" s="11"/>
+      <c r="AI10" s="11"/>
+      <c r="AJ10" s="11"/>
+      <c r="AK10" s="11"/>
+      <c r="AL10" s="11"/>
+      <c r="AM10" s="11"/>
+      <c r="AN10" s="11"/>
+    </row>
+    <row r="11" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>7</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D11" t="s">
@@ -5528,49 +5522,49 @@
       <c r="K11" t="s">
         <v>94</v>
       </c>
-      <c r="L11" s="4">
+      <c r="L11" s="1">
         <v>1.39</v>
       </c>
-      <c r="M11" s="4">
+      <c r="M11" s="1">
         <v>0.32</v>
       </c>
       <c r="O11" s="3">
         <v>35</v>
       </c>
-      <c r="Q11" s="12">
+      <c r="Q11" s="6">
         <f>66.9-1</f>
         <v>65.900000000000006</v>
       </c>
-      <c r="R11" s="12"/>
-      <c r="S11" s="6"/>
-      <c r="Z11" s="16" t="s">
+      <c r="R11" s="6"/>
+      <c r="S11" s="3"/>
+      <c r="Z11" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="AA11" s="17"/>
-      <c r="AB11" s="17"/>
-      <c r="AC11" s="17"/>
-      <c r="AD11" s="17"/>
-      <c r="AE11" s="17"/>
-      <c r="AF11" s="17"/>
-      <c r="AG11" s="17"/>
-      <c r="AH11" s="17"/>
-      <c r="AI11" s="17"/>
-      <c r="AJ11" s="17"/>
-      <c r="AK11" s="17"/>
-      <c r="AL11" s="17"/>
-      <c r="AM11" s="17"/>
-      <c r="AN11" s="17" t="s">
+      <c r="AA11" s="11"/>
+      <c r="AB11" s="11"/>
+      <c r="AC11" s="11"/>
+      <c r="AD11" s="11"/>
+      <c r="AE11" s="11"/>
+      <c r="AF11" s="11"/>
+      <c r="AG11" s="11"/>
+      <c r="AH11" s="11"/>
+      <c r="AI11" s="11"/>
+      <c r="AJ11" s="11"/>
+      <c r="AK11" s="11"/>
+      <c r="AL11" s="11"/>
+      <c r="AM11" s="11"/>
+      <c r="AN11" s="11" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="12" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>8</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D12" t="s">
@@ -5594,54 +5588,54 @@
       <c r="K12" t="s">
         <v>94</v>
       </c>
-      <c r="L12" s="4">
+      <c r="L12" s="1">
         <v>2.11</v>
       </c>
-      <c r="M12" s="4">
+      <c r="M12" s="1">
         <v>0.42</v>
       </c>
-      <c r="N12" s="4"/>
-      <c r="O12" s="9">
+      <c r="N12" s="1"/>
+      <c r="O12" s="3">
         <v>34</v>
       </c>
-      <c r="Q12" s="12">
+      <c r="Q12" s="6">
         <f>169.5-3</f>
         <v>166.5</v>
       </c>
-      <c r="R12" s="12">
+      <c r="R12" s="6">
         <v>4.3</v>
       </c>
-      <c r="S12" s="6"/>
-      <c r="Z12" s="16" t="s">
+      <c r="S12" s="3"/>
+      <c r="Z12" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="AA12" s="17"/>
-      <c r="AB12" s="17"/>
-      <c r="AC12" s="17" t="s">
+      <c r="AA12" s="11"/>
+      <c r="AB12" s="11"/>
+      <c r="AC12" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="AD12" s="17"/>
-      <c r="AE12" s="17"/>
-      <c r="AF12" s="17"/>
-      <c r="AG12" s="17"/>
-      <c r="AH12" s="17"/>
-      <c r="AI12" s="17"/>
-      <c r="AJ12" s="17"/>
-      <c r="AK12" s="17"/>
-      <c r="AL12" s="17"/>
-      <c r="AM12" s="17"/>
-      <c r="AN12" s="17" t="s">
+      <c r="AD12" s="11"/>
+      <c r="AE12" s="11"/>
+      <c r="AF12" s="11"/>
+      <c r="AG12" s="11"/>
+      <c r="AH12" s="11"/>
+      <c r="AI12" s="11"/>
+      <c r="AJ12" s="11"/>
+      <c r="AK12" s="11"/>
+      <c r="AL12" s="11"/>
+      <c r="AM12" s="11"/>
+      <c r="AN12" s="11" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="13" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>9</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D13" t="s">
@@ -5662,52 +5656,52 @@
       <c r="J13" s="1">
         <v>75</v>
       </c>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
       <c r="O13" s="3">
         <v>19</v>
       </c>
-      <c r="Q13" s="12">
+      <c r="Q13" s="6">
         <f>471.6-6.2</f>
         <v>465.40000000000003</v>
       </c>
-      <c r="R13" s="12">
+      <c r="R13" s="6">
         <v>1.4</v>
       </c>
-      <c r="S13" s="12">
+      <c r="S13" s="6">
         <v>1.4</v>
       </c>
       <c r="V13">
         <v>1.4</v>
       </c>
-      <c r="Z13" s="16" t="s">
+      <c r="Z13" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="AA13" s="17"/>
-      <c r="AB13" s="17"/>
-      <c r="AC13" s="17"/>
-      <c r="AD13" s="17"/>
-      <c r="AE13" s="17"/>
-      <c r="AF13" s="17"/>
-      <c r="AG13" s="17"/>
-      <c r="AH13" s="17"/>
-      <c r="AI13" s="17"/>
-      <c r="AJ13" s="17"/>
-      <c r="AK13" s="17"/>
-      <c r="AL13" s="17"/>
-      <c r="AM13" s="17" t="s">
+      <c r="AA13" s="11"/>
+      <c r="AB13" s="11"/>
+      <c r="AC13" s="11"/>
+      <c r="AD13" s="11"/>
+      <c r="AE13" s="11"/>
+      <c r="AF13" s="11"/>
+      <c r="AG13" s="11"/>
+      <c r="AH13" s="11"/>
+      <c r="AI13" s="11"/>
+      <c r="AJ13" s="11"/>
+      <c r="AK13" s="11"/>
+      <c r="AL13" s="11"/>
+      <c r="AM13" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="AN13" s="17"/>
-    </row>
-    <row r="14" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AN13" s="11"/>
+    </row>
+    <row r="14" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>10</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D14" t="s">
@@ -5728,56 +5722,56 @@
       <c r="J14" s="1">
         <v>75</v>
       </c>
-      <c r="L14" s="4">
+      <c r="L14" s="1">
         <v>3.86</v>
       </c>
-      <c r="M14" s="4">
+      <c r="M14" s="1">
         <v>0.23</v>
       </c>
-      <c r="N14" s="4"/>
-      <c r="O14" s="9">
+      <c r="N14" s="1"/>
+      <c r="O14" s="3">
         <v>18</v>
       </c>
-      <c r="Q14" s="12">
+      <c r="Q14" s="6">
         <f>55.6-0.8</f>
         <v>54.800000000000004</v>
       </c>
-      <c r="R14" s="12">
+      <c r="R14" s="6">
         <v>1</v>
       </c>
-      <c r="S14" s="6"/>
-      <c r="Z14" s="16" t="s">
+      <c r="S14" s="3"/>
+      <c r="Z14" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="AA14" s="17"/>
-      <c r="AB14" s="17"/>
-      <c r="AC14" s="17"/>
-      <c r="AD14" s="17"/>
-      <c r="AE14" s="17"/>
-      <c r="AF14" s="17"/>
-      <c r="AG14" s="17"/>
-      <c r="AH14" s="17"/>
-      <c r="AI14" s="17"/>
-      <c r="AJ14" s="17"/>
-      <c r="AK14" s="17" t="s">
+      <c r="AA14" s="11"/>
+      <c r="AB14" s="11"/>
+      <c r="AC14" s="11"/>
+      <c r="AD14" s="11"/>
+      <c r="AE14" s="11"/>
+      <c r="AF14" s="11"/>
+      <c r="AG14" s="11"/>
+      <c r="AH14" s="11"/>
+      <c r="AI14" s="11"/>
+      <c r="AJ14" s="11"/>
+      <c r="AK14" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="AL14" s="17" t="s">
+      <c r="AL14" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="AM14" s="17"/>
-      <c r="AN14" s="17" t="s">
+      <c r="AM14" s="11"/>
+      <c r="AN14" s="11" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="15" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>11</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D15" t="s">
@@ -5801,50 +5795,50 @@
       <c r="K15" t="s">
         <v>102</v>
       </c>
-      <c r="L15" s="4">
+      <c r="L15" s="1">
         <v>2.1800000000000002</v>
       </c>
-      <c r="M15" s="4">
+      <c r="M15" s="1">
         <v>0.25</v>
       </c>
-      <c r="N15" s="8"/>
-      <c r="O15" s="6">
+      <c r="N15" s="1"/>
+      <c r="O15" s="3">
         <v>14</v>
       </c>
-      <c r="Q15" s="12">
+      <c r="Q15" s="6">
         <f>55.2-0.7</f>
         <v>54.5</v>
       </c>
-      <c r="R15" s="12"/>
-      <c r="S15" s="6"/>
-      <c r="Z15" s="16" t="s">
+      <c r="R15" s="6"/>
+      <c r="S15" s="3"/>
+      <c r="Z15" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="AA15" s="17"/>
-      <c r="AB15" s="17"/>
-      <c r="AC15" s="17"/>
-      <c r="AD15" s="17"/>
-      <c r="AE15" s="17"/>
-      <c r="AF15" s="17"/>
-      <c r="AG15" s="17"/>
-      <c r="AH15" s="17"/>
-      <c r="AI15" s="17"/>
-      <c r="AJ15" s="17"/>
-      <c r="AK15" s="17"/>
-      <c r="AL15" s="17"/>
-      <c r="AM15" s="17"/>
-      <c r="AN15" s="17" t="s">
+      <c r="AA15" s="11"/>
+      <c r="AB15" s="11"/>
+      <c r="AC15" s="11"/>
+      <c r="AD15" s="11"/>
+      <c r="AE15" s="11"/>
+      <c r="AF15" s="11"/>
+      <c r="AG15" s="11"/>
+      <c r="AH15" s="11"/>
+      <c r="AI15" s="11"/>
+      <c r="AJ15" s="11"/>
+      <c r="AK15" s="11"/>
+      <c r="AL15" s="11"/>
+      <c r="AM15" s="11"/>
+      <c r="AN15" s="11" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="16" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>12</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D16" t="s">
@@ -5868,52 +5862,52 @@
       <c r="K16" t="s">
         <v>102</v>
       </c>
-      <c r="L16" s="4">
+      <c r="L16" s="1">
         <v>1.34</v>
       </c>
-      <c r="M16" s="4">
+      <c r="M16" s="1">
         <v>0.43</v>
       </c>
-      <c r="N16" s="8"/>
-      <c r="O16" s="6">
+      <c r="N16" s="1"/>
+      <c r="O16" s="3">
         <v>11</v>
       </c>
-      <c r="Q16" s="12">
+      <c r="Q16" s="6">
         <f>34.3-0.5</f>
         <v>33.799999999999997</v>
       </c>
-      <c r="R16" s="12">
+      <c r="R16" s="6">
         <v>10.6</v>
       </c>
-      <c r="S16" s="6"/>
-      <c r="Z16" s="16" t="s">
+      <c r="S16" s="3"/>
+      <c r="Z16" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="AA16" s="17"/>
-      <c r="AB16" s="17"/>
-      <c r="AC16" s="17"/>
-      <c r="AD16" s="17"/>
-      <c r="AE16" s="17"/>
-      <c r="AF16" s="17"/>
-      <c r="AG16" s="17"/>
-      <c r="AH16" s="17"/>
-      <c r="AI16" s="17"/>
-      <c r="AJ16" s="17"/>
-      <c r="AK16" s="17"/>
-      <c r="AL16" s="17"/>
-      <c r="AM16" s="17"/>
-      <c r="AN16" s="17" t="s">
+      <c r="AA16" s="11"/>
+      <c r="AB16" s="11"/>
+      <c r="AC16" s="11"/>
+      <c r="AD16" s="11"/>
+      <c r="AE16" s="11"/>
+      <c r="AF16" s="11"/>
+      <c r="AG16" s="11"/>
+      <c r="AH16" s="11"/>
+      <c r="AI16" s="11"/>
+      <c r="AJ16" s="11"/>
+      <c r="AK16" s="11"/>
+      <c r="AL16" s="11"/>
+      <c r="AM16" s="11"/>
+      <c r="AN16" s="11" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="17" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>13</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D17" t="s">
@@ -5937,60 +5931,60 @@
       <c r="K17" t="s">
         <v>102</v>
       </c>
-      <c r="L17" s="4">
+      <c r="L17" s="1">
         <v>1.37</v>
       </c>
-      <c r="M17" s="4">
+      <c r="M17" s="1">
         <v>0.67</v>
       </c>
       <c r="N17" s="1"/>
-      <c r="O17" s="6">
+      <c r="O17" s="3">
         <v>20</v>
       </c>
-      <c r="Q17" s="12">
+      <c r="Q17" s="6">
         <f>61.3-0.7</f>
         <v>60.599999999999994</v>
       </c>
-      <c r="R17" s="12">
+      <c r="R17" s="6">
         <v>13</v>
       </c>
-      <c r="S17" s="6"/>
-      <c r="Z17" s="16" t="s">
+      <c r="S17" s="3"/>
+      <c r="Z17" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="AA17" s="17"/>
-      <c r="AB17" s="17"/>
-      <c r="AC17" s="17"/>
-      <c r="AD17" s="17"/>
-      <c r="AE17" s="17"/>
-      <c r="AF17" s="17" t="s">
+      <c r="AA17" s="11"/>
+      <c r="AB17" s="11"/>
+      <c r="AC17" s="11"/>
+      <c r="AD17" s="11"/>
+      <c r="AE17" s="11"/>
+      <c r="AF17" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="AG17" s="17"/>
-      <c r="AH17" s="17" t="s">
+      <c r="AG17" s="11"/>
+      <c r="AH17" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="AI17" s="17"/>
-      <c r="AJ17" s="17" t="s">
+      <c r="AI17" s="11"/>
+      <c r="AJ17" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="AK17" s="17"/>
-      <c r="AL17" s="17" t="s">
+      <c r="AK17" s="11"/>
+      <c r="AL17" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="AM17" s="17"/>
-      <c r="AN17" s="17" t="s">
+      <c r="AM17" s="11"/>
+      <c r="AN17" s="11" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="18" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>14</v>
       </c>
       <c r="B18" t="s">
         <v>2</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="4" t="s">
         <v>1</v>
       </c>
       <c r="D18" t="s">
@@ -6014,36 +6008,36 @@
       <c r="K18" t="s">
         <v>91</v>
       </c>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
       <c r="O18" s="3">
         <v>19</v>
       </c>
-      <c r="Q18" s="12">
+      <c r="Q18" s="6">
         <f>117-1.6</f>
         <v>115.4</v>
       </c>
-      <c r="R18" s="12">
+      <c r="R18" s="6">
         <v>6.7</v>
       </c>
-      <c r="S18" s="6"/>
-      <c r="Z18" s="16"/>
-      <c r="AA18" s="17"/>
-      <c r="AB18" s="17"/>
-      <c r="AC18" s="17"/>
-      <c r="AD18" s="17"/>
-      <c r="AE18" s="17"/>
-      <c r="AF18" s="17"/>
-      <c r="AG18" s="17"/>
-      <c r="AH18" s="17"/>
-      <c r="AI18" s="17"/>
-      <c r="AJ18" s="17"/>
-      <c r="AK18" s="17"/>
-      <c r="AL18" s="17"/>
-      <c r="AM18" s="17"/>
-      <c r="AN18" s="17"/>
-    </row>
-    <row r="19" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="S18" s="3"/>
+      <c r="Z18" s="10"/>
+      <c r="AA18" s="11"/>
+      <c r="AB18" s="11"/>
+      <c r="AC18" s="11"/>
+      <c r="AD18" s="11"/>
+      <c r="AE18" s="11"/>
+      <c r="AF18" s="11"/>
+      <c r="AG18" s="11"/>
+      <c r="AH18" s="11"/>
+      <c r="AI18" s="11"/>
+      <c r="AJ18" s="11"/>
+      <c r="AK18" s="11"/>
+      <c r="AL18" s="11"/>
+      <c r="AM18" s="11"/>
+      <c r="AN18" s="11"/>
+    </row>
+    <row r="19" spans="1:40" x14ac:dyDescent="0.3">
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
@@ -6054,32 +6048,28 @@
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
-      <c r="Q19" s="6"/>
-      <c r="R19" s="6"/>
-      <c r="S19" s="6"/>
-    </row>
-    <row r="21" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A21" s="26" t="s">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+    </row>
+    <row r="21" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A21" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="B21" s="26"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="26"/>
-      <c r="K21" s="26"/>
-      <c r="L21" s="26"/>
-    </row>
-    <row r="22" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A22" s="18"/>
-      <c r="B22" s="18"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18" t="s">
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="20"/>
+      <c r="K21" s="20"/>
+      <c r="L21" s="20"/>
+    </row>
+    <row r="22" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="E22" t="s">
         <v>118</v>
       </c>
       <c r="F22" t="s">
@@ -6098,627 +6088,627 @@
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>1</v>
       </c>
       <c r="B23">
         <v>8</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="4" t="s">
         <v>26</v>
       </c>
       <c r="D23" t="s">
         <v>71</v>
       </c>
-      <c r="E23" s="19">
+      <c r="E23" s="12">
         <v>7.3170731707317055E-2</v>
       </c>
-      <c r="F23" s="19">
+      <c r="F23" s="12">
         <v>1.2195121951219511E-2</v>
       </c>
-      <c r="G23" s="20">
+      <c r="G23" s="13">
         <f>G5*$L23/SUM($G5:$J5)</f>
         <v>9.5274390243902437E-3</v>
       </c>
-      <c r="H23" s="20">
+      <c r="H23" s="13">
         <f t="shared" ref="H23:J23" si="0">H5*$L23/SUM($G5:$J5)</f>
         <v>1.9054878048780487E-2</v>
       </c>
-      <c r="I23" s="20">
+      <c r="I23" s="13">
         <f t="shared" si="0"/>
         <v>0.29535060975609756</v>
       </c>
-      <c r="J23" s="20">
+      <c r="J23" s="13">
         <f t="shared" si="0"/>
         <v>0.59070121951219512</v>
       </c>
-      <c r="L23" s="19">
+      <c r="L23" s="12">
         <v>0.91463414634146334</v>
       </c>
     </row>
-    <row r="24" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>2</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="4" t="s">
         <v>24</v>
       </c>
       <c r="D24" t="s">
         <v>75</v>
       </c>
-      <c r="E24" s="19">
+      <c r="E24" s="12">
         <v>0.10251046025104602</v>
       </c>
-      <c r="F24" s="19">
+      <c r="F24" s="12">
         <v>9.7629009762900971E-3</v>
       </c>
-      <c r="G24" s="20">
+      <c r="G24" s="13">
         <f>G6*$L24/SUM($G6:$J6)</f>
         <v>0.40180381218038119</v>
       </c>
-      <c r="H24" s="20">
+      <c r="H24" s="13">
         <f t="shared" ref="H24:J24" si="1">H6*$L24/SUM($G6:$J6)</f>
         <v>0.48452812645281268</v>
       </c>
-      <c r="I24" s="20">
+      <c r="I24" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J24" s="20">
+      <c r="J24" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L24" s="19">
+      <c r="L24" s="12">
         <v>0.88633193863319382</v>
       </c>
     </row>
-    <row r="25" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>3</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="4" t="s">
         <v>22</v>
       </c>
       <c r="D25" t="s">
         <v>79</v>
       </c>
-      <c r="E25" s="19">
+      <c r="E25" s="12">
         <v>2.0942408376963352E-2</v>
       </c>
-      <c r="F25" s="19">
+      <c r="F25" s="12">
         <v>1.963350785340314E-3</v>
       </c>
-      <c r="G25" s="20">
+      <c r="G25" s="13">
         <f t="shared" ref="G25:J36" si="2">G7*$L25/SUM($G7:$J7)</f>
         <v>0.164700687567022</v>
       </c>
-      <c r="H25" s="20">
+      <c r="H25" s="13">
         <f t="shared" si="2"/>
         <v>0.81173910300889407</v>
       </c>
-      <c r="I25" s="20">
+      <c r="I25" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J25" s="20">
+      <c r="J25" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L25" s="19">
+      <c r="L25" s="12">
         <v>0.97643979057591612</v>
       </c>
-      <c r="Q25" s="6"/>
-      <c r="R25" s="6"/>
-      <c r="S25" s="6"/>
-    </row>
-    <row r="26" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="Q25" s="3"/>
+      <c r="R25" s="3"/>
+      <c r="S25" s="3"/>
+    </row>
+    <row r="26" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>4</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="4" t="s">
         <v>20</v>
       </c>
       <c r="D26" t="s">
         <v>83</v>
       </c>
-      <c r="E26" s="19">
+      <c r="E26" s="12">
         <v>9.926189870195978E-3</v>
       </c>
-      <c r="F26" s="19">
+      <c r="F26" s="12">
         <v>1.0180707559175363E-3</v>
       </c>
-      <c r="G26" s="20">
+      <c r="G26" s="13">
         <f t="shared" si="2"/>
         <v>0.13972191175982382</v>
       </c>
-      <c r="H26" s="20">
+      <c r="H26" s="13">
         <f t="shared" si="2"/>
         <v>0.21495678732280588</v>
       </c>
-      <c r="I26" s="20">
+      <c r="I26" s="13">
         <f t="shared" si="2"/>
         <v>0.49440061084245351</v>
       </c>
-      <c r="J26" s="20">
+      <c r="J26" s="13">
         <f t="shared" si="2"/>
         <v>0.13972191175982382</v>
       </c>
-      <c r="L26" s="19">
+      <c r="L26" s="12">
         <v>0.98880122168490703</v>
       </c>
-      <c r="Q26" s="6"/>
-      <c r="R26" s="6"/>
-      <c r="S26" s="6"/>
-    </row>
-    <row r="27" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="Q26" s="3"/>
+      <c r="R26" s="3"/>
+      <c r="S26" s="3"/>
+    </row>
+    <row r="27" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>5</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="4" t="s">
         <v>18</v>
       </c>
       <c r="D27" t="s">
         <v>87</v>
       </c>
-      <c r="E27" s="19">
+      <c r="E27" s="12">
         <v>8.9905362776025247E-2</v>
       </c>
-      <c r="F27" s="19">
+      <c r="F27" s="12">
         <v>9.4637223974763408E-3</v>
       </c>
-      <c r="G27" s="20">
+      <c r="G27" s="13">
         <f t="shared" si="2"/>
         <v>0.12726306405157042</v>
       </c>
-      <c r="H27" s="20">
+      <c r="H27" s="13">
         <f t="shared" si="2"/>
         <v>0.19578932931010834</v>
       </c>
-      <c r="I27" s="20">
+      <c r="I27" s="13">
         <f t="shared" si="2"/>
         <v>0.45031545741324924</v>
       </c>
-      <c r="J27" s="20">
+      <c r="J27" s="13">
         <f t="shared" si="2"/>
         <v>0.12726306405157042</v>
       </c>
-      <c r="L27" s="19">
+      <c r="L27" s="12">
         <v>0.90063091482649849</v>
       </c>
-      <c r="Q27" s="6"/>
-      <c r="R27" s="6"/>
-      <c r="S27" s="6"/>
-    </row>
-    <row r="28" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="Q27" s="3"/>
+      <c r="R27" s="3"/>
+      <c r="S27" s="3"/>
+    </row>
+    <row r="28" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>6</v>
       </c>
       <c r="B28">
         <v>22</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="4" t="s">
         <v>17</v>
       </c>
       <c r="D28" t="s">
         <v>90</v>
       </c>
-      <c r="E28" s="19">
+      <c r="E28" s="12">
         <v>0.32580645161290323</v>
       </c>
-      <c r="F28" s="19">
+      <c r="F28" s="12">
         <v>3.2258064516129031E-2</v>
       </c>
-      <c r="G28" s="20">
+      <c r="G28" s="13">
         <f t="shared" si="2"/>
         <v>6.1136712749615969E-2</v>
       </c>
-      <c r="H28" s="20">
+      <c r="H28" s="13">
         <f t="shared" si="2"/>
         <v>0.1910522273425499</v>
       </c>
-      <c r="I28" s="20">
+      <c r="I28" s="13">
         <f t="shared" si="2"/>
         <v>0.12227342549923194</v>
       </c>
-      <c r="J28" s="20">
+      <c r="J28" s="13">
         <f t="shared" si="2"/>
         <v>0.26747311827956988</v>
       </c>
-      <c r="L28" s="19">
+      <c r="L28" s="12">
         <v>0.64193548387096766</v>
       </c>
-      <c r="Q28" s="6"/>
-      <c r="R28" s="6"/>
-      <c r="S28" s="6"/>
-    </row>
-    <row r="29" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="Q28" s="3"/>
+      <c r="R28" s="3"/>
+      <c r="S28" s="3"/>
+    </row>
+    <row r="29" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>7</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D29" t="s">
         <v>93</v>
       </c>
-      <c r="E29" s="19">
+      <c r="E29" s="12">
         <v>3.0349013657056143E-2</v>
       </c>
-      <c r="F29" s="19">
+      <c r="F29" s="12">
         <v>3.0349013657056147E-3</v>
       </c>
-      <c r="G29" s="20">
+      <c r="G29" s="13">
         <f t="shared" si="2"/>
         <v>1.006891755184623E-2</v>
       </c>
-      <c r="H29" s="20">
+      <c r="H29" s="13">
         <f t="shared" si="2"/>
         <v>2.0137835103692461E-2</v>
       </c>
-      <c r="I29" s="20">
+      <c r="I29" s="13">
         <f t="shared" si="2"/>
         <v>0.31213644410723312</v>
       </c>
-      <c r="J29" s="20">
+      <c r="J29" s="13">
         <f t="shared" si="2"/>
         <v>0.62427288821446625</v>
       </c>
-      <c r="L29" s="19">
+      <c r="L29" s="12">
         <v>0.96661608497723817</v>
       </c>
-      <c r="Q29" s="6"/>
-      <c r="R29" s="6"/>
-      <c r="S29" s="6"/>
-    </row>
-    <row r="30" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="Q29" s="3"/>
+      <c r="R29" s="3"/>
+      <c r="S29" s="3"/>
+    </row>
+    <row r="30" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>8</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C30" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D30" t="s">
         <v>96</v>
       </c>
-      <c r="E30" s="19">
+      <c r="E30" s="12">
         <v>1.5615615615615617E-2</v>
       </c>
-      <c r="F30" s="19">
+      <c r="F30" s="12">
         <v>1.8018018018018018E-3</v>
       </c>
-      <c r="G30" s="20">
+      <c r="G30" s="13">
         <f t="shared" si="2"/>
         <v>1.0235235235235235E-2</v>
       </c>
-      <c r="H30" s="20">
+      <c r="H30" s="13">
         <f t="shared" si="2"/>
         <v>2.0470470470470469E-2</v>
       </c>
-      <c r="I30" s="20">
+      <c r="I30" s="13">
         <f t="shared" si="2"/>
         <v>0.31729229229229228</v>
       </c>
-      <c r="J30" s="20">
+      <c r="J30" s="13">
         <f t="shared" si="2"/>
         <v>0.63458458458458455</v>
       </c>
-      <c r="L30" s="19">
+      <c r="L30" s="12">
         <v>0.98258258258258258</v>
       </c>
-      <c r="Q30" s="6"/>
-      <c r="R30" s="6"/>
-      <c r="S30" s="6"/>
-    </row>
-    <row r="31" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="Q30" s="3"/>
+      <c r="R30" s="3"/>
+      <c r="S30" s="3"/>
+    </row>
+    <row r="31" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>9</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="C31" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D31" t="s">
         <v>99</v>
       </c>
-      <c r="E31" s="19">
+      <c r="E31" s="12">
         <v>3.867640739149119E-3</v>
       </c>
-      <c r="F31" s="19">
+      <c r="F31" s="12">
         <v>4.2973785990545768E-4</v>
       </c>
-      <c r="G31" s="20">
+      <c r="G31" s="13">
         <f t="shared" si="2"/>
         <v>1.0264975478360262E-2</v>
       </c>
-      <c r="H31" s="20">
+      <c r="H31" s="13">
         <f t="shared" si="2"/>
         <v>1.0264975478360262E-2</v>
       </c>
-      <c r="I31" s="20">
+      <c r="I31" s="13">
         <f t="shared" si="2"/>
         <v>0.20529950956720522</v>
       </c>
-      <c r="J31" s="20">
+      <c r="J31" s="13">
         <f t="shared" si="2"/>
         <v>0.76987316087701962</v>
       </c>
-      <c r="L31" s="19">
+      <c r="L31" s="12">
         <v>0.99570262140094534</v>
       </c>
-      <c r="Q31" s="6"/>
-      <c r="R31" s="6"/>
-      <c r="S31" s="6"/>
-    </row>
-    <row r="32" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="Q31" s="3"/>
+      <c r="R31" s="3"/>
+      <c r="S31" s="3"/>
+    </row>
+    <row r="32" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>10</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="B32" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="C32" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D32" t="s">
         <v>101</v>
       </c>
-      <c r="E32" s="19">
+      <c r="E32" s="12">
         <v>6.3868613138686123E-2</v>
       </c>
-      <c r="F32" s="19">
+      <c r="F32" s="12">
         <v>5.4744525547445249E-3</v>
       </c>
-      <c r="G32" s="20">
+      <c r="G32" s="13">
         <f t="shared" si="2"/>
         <v>9.5755888328692904E-3</v>
       </c>
-      <c r="H32" s="20">
+      <c r="H32" s="13">
         <f t="shared" si="2"/>
         <v>9.5755888328692904E-3</v>
       </c>
-      <c r="I32" s="20">
+      <c r="I32" s="13">
         <f t="shared" si="2"/>
         <v>0.19151177665738581</v>
       </c>
-      <c r="J32" s="20">
+      <c r="J32" s="13">
         <f t="shared" si="2"/>
         <v>0.71816916246519669</v>
       </c>
-      <c r="L32" s="19">
+      <c r="L32" s="12">
         <v>0.92883211678832112</v>
       </c>
-      <c r="Q32" s="6"/>
-      <c r="R32" s="6"/>
-      <c r="S32" s="6"/>
-    </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Q32" s="3"/>
+      <c r="R32" s="3"/>
+      <c r="S32" s="3"/>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>11</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="B33" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C33" s="5" t="s">
+      <c r="C33" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D33" t="s">
         <v>106</v>
       </c>
-      <c r="E33" s="19">
+      <c r="E33" s="12">
         <v>0.33577981651376149</v>
       </c>
-      <c r="F33" s="19">
+      <c r="F33" s="12">
         <v>3.3027522935779818E-2</v>
       </c>
-      <c r="G33" s="20">
+      <c r="G33" s="13">
         <f t="shared" si="2"/>
         <v>0.1803407601572739</v>
       </c>
-      <c r="H33" s="20">
+      <c r="H33" s="13">
         <f t="shared" si="2"/>
         <v>0.1674592772888972</v>
       </c>
-      <c r="I33" s="20">
+      <c r="I33" s="13">
         <f t="shared" si="2"/>
         <v>6.4407414341883532E-2</v>
       </c>
-      <c r="J33" s="20">
+      <c r="J33" s="13">
         <f t="shared" si="2"/>
         <v>0.21898520876240402</v>
       </c>
-      <c r="L33" s="19">
+      <c r="L33" s="12">
         <v>0.63119266055045864</v>
       </c>
-      <c r="Q33" s="6"/>
-      <c r="R33" s="6"/>
-      <c r="S33" s="6"/>
-    </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Q33" s="3"/>
+      <c r="R33" s="3"/>
+      <c r="S33" s="3"/>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>12</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="B34" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C34" s="5" t="s">
+      <c r="C34" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D34" t="s">
         <v>102</v>
       </c>
-      <c r="E34" s="19">
+      <c r="E34" s="12">
         <v>0.70118343195266275</v>
       </c>
-      <c r="F34" s="19">
+      <c r="F34" s="12">
         <v>7.6923076923076927E-2</v>
       </c>
-      <c r="G34" s="20">
+      <c r="G34" s="13">
         <f t="shared" si="2"/>
         <v>5.6923076923076937E-2</v>
       </c>
-      <c r="H34" s="20">
+      <c r="H34" s="13">
         <f t="shared" si="2"/>
         <v>5.6923076923076937E-2</v>
       </c>
-      <c r="I34" s="20">
+      <c r="I34" s="13">
         <f t="shared" si="2"/>
         <v>3.0650887573964503E-2</v>
       </c>
-      <c r="J34" s="20">
+      <c r="J34" s="13">
         <f t="shared" si="2"/>
         <v>7.4437869822485223E-2</v>
       </c>
-      <c r="L34" s="19">
+      <c r="L34" s="12">
         <v>0.21893491124260359</v>
       </c>
-      <c r="Q34" s="6"/>
-      <c r="R34" s="6"/>
-      <c r="S34" s="6"/>
-    </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Q34" s="3"/>
+      <c r="R34" s="3"/>
+      <c r="S34" s="3"/>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>13</v>
       </c>
-      <c r="B35" s="7" t="s">
+      <c r="B35" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C35" s="5" t="s">
+      <c r="C35" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D35" t="s">
         <v>109</v>
       </c>
-      <c r="E35" s="19">
+      <c r="E35" s="12">
         <v>0.37458745874587462</v>
       </c>
-      <c r="F35" s="19">
+      <c r="F35" s="12">
         <v>3.6303630363036313E-2</v>
       </c>
-      <c r="G35" s="20">
+      <c r="G35" s="13">
         <f t="shared" si="2"/>
         <v>0.17182343234323436</v>
       </c>
-      <c r="H35" s="20">
+      <c r="H35" s="13">
         <f t="shared" si="2"/>
         <v>0.15955033003300331</v>
       </c>
-      <c r="I35" s="20">
+      <c r="I35" s="13">
         <f t="shared" si="2"/>
         <v>6.1365511551155126E-2</v>
       </c>
-      <c r="J35" s="20">
+      <c r="J35" s="13">
         <f t="shared" si="2"/>
         <v>0.19636963696369639</v>
       </c>
-      <c r="L35" s="19">
+      <c r="L35" s="12">
         <v>0.58910891089108919</v>
       </c>
-      <c r="Q35" s="6"/>
-      <c r="R35" s="6"/>
-      <c r="S35" s="6"/>
-    </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Q35" s="3"/>
+      <c r="R35" s="3"/>
+      <c r="S35" s="3"/>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>14</v>
       </c>
       <c r="B36" t="s">
         <v>2</v>
       </c>
-      <c r="C36" s="5" t="s">
+      <c r="C36" s="4" t="s">
         <v>1</v>
       </c>
       <c r="D36" t="s">
         <v>116</v>
       </c>
-      <c r="E36" s="19">
+      <c r="E36" s="12">
         <v>0.28509532062391679</v>
       </c>
-      <c r="F36" s="19">
+      <c r="F36" s="12">
         <v>3.0329289428076254E-2</v>
       </c>
-      <c r="G36" s="20">
+      <c r="G36" s="13">
         <f t="shared" si="2"/>
         <v>4.174240182609798E-2</v>
       </c>
-      <c r="H36" s="20">
+      <c r="H36" s="13">
         <f t="shared" si="2"/>
         <v>0.15862112693917232</v>
       </c>
-      <c r="I36" s="20">
+      <c r="I36" s="13">
         <f t="shared" si="2"/>
         <v>0.13357568584351354</v>
       </c>
-      <c r="J36" s="20">
+      <c r="J36" s="13">
         <f t="shared" si="2"/>
         <v>0.35063617533922309</v>
       </c>
-      <c r="L36" s="19">
+      <c r="L36" s="12">
         <v>0.68457538994800693</v>
       </c>
-      <c r="Q36" s="6"/>
-      <c r="R36" s="6"/>
-      <c r="S36" s="6"/>
-    </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B37" s="7"/>
-      <c r="C37" s="5"/>
-      <c r="F37" s="20"/>
-      <c r="G37" s="20"/>
-      <c r="H37" s="20"/>
+      <c r="Q36" s="3"/>
+      <c r="R36" s="3"/>
+      <c r="S36" s="3"/>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B37" s="5"/>
+      <c r="C37" s="4"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="13"/>
+      <c r="H37" s="13"/>
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
-      <c r="Q37" s="6"/>
-      <c r="R37" s="6"/>
-      <c r="S37" s="6"/>
-    </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="C38" s="5"/>
-      <c r="F38" s="20"/>
-      <c r="G38" s="20"/>
-      <c r="H38" s="20"/>
+      <c r="Q37" s="3"/>
+      <c r="R37" s="3"/>
+      <c r="S37" s="3"/>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="C38" s="4"/>
+      <c r="F38" s="13"/>
+      <c r="G38" s="13"/>
+      <c r="H38" s="13"/>
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
-      <c r="Q38" s="6"/>
-      <c r="R38" s="6"/>
-      <c r="S38" s="6"/>
-    </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Q38" s="3"/>
+      <c r="R38" s="3"/>
+      <c r="S38" s="3"/>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A41" s="26" t="s">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A41" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="B41" s="26"/>
-      <c r="C41" s="26"/>
-      <c r="D41" s="26"/>
-      <c r="E41" s="26"/>
-      <c r="F41" s="26"/>
-      <c r="G41" s="26"/>
-      <c r="H41" s="26"/>
+      <c r="B41" s="20"/>
+      <c r="C41" s="20"/>
+      <c r="D41" s="20"/>
+      <c r="E41" s="20"/>
+      <c r="F41" s="20"/>
+      <c r="G41" s="20"/>
+      <c r="H41" s="20"/>
       <c r="Q41" t="s">
         <v>48</v>
       </c>
@@ -6729,11 +6719,11 @@
         <v>53</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>37</v>
       </c>
-      <c r="B42" s="7" t="s">
+      <c r="B42" s="5" t="s">
         <v>36</v>
       </c>
       <c r="C42" t="s">
@@ -6760,13 +6750,13 @@
       <c r="K42" t="s">
         <v>122</v>
       </c>
-      <c r="Q42" s="26" t="s">
+      <c r="Q42" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="R42" s="26"/>
-      <c r="S42" s="26"/>
-    </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="R42" s="20"/>
+      <c r="S42" s="20"/>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
       <c r="F43" t="s">
         <v>123</v>
       </c>
@@ -6785,701 +6775,701 @@
       <c r="K43" t="s">
         <v>28</v>
       </c>
-      <c r="Q43" s="26" t="s">
+      <c r="Q43" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="R43" s="26"/>
-      <c r="S43" s="26"/>
-    </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="R43" s="20"/>
+      <c r="S43" s="20"/>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>1</v>
       </c>
       <c r="B44">
         <v>8</v>
       </c>
-      <c r="C44" s="5" t="s">
+      <c r="C44" s="4" t="s">
         <v>26</v>
       </c>
       <c r="D44" t="s">
         <v>71</v>
       </c>
-      <c r="F44" s="21">
+      <c r="F44" s="14">
         <v>0.6</v>
       </c>
-      <c r="G44" s="21">
+      <c r="G44" s="14">
         <v>0.1</v>
       </c>
-      <c r="H44" s="21">
+      <c r="H44" s="14">
         <v>7.5</v>
       </c>
-      <c r="I44" s="19">
+      <c r="I44" s="12">
         <f>F44/Q44</f>
         <v>7.3170731707317055E-2</v>
       </c>
-      <c r="J44" s="19">
+      <c r="J44" s="12">
         <f>G44/Q44</f>
         <v>1.2195121951219511E-2</v>
       </c>
-      <c r="K44" s="19">
+      <c r="K44" s="12">
         <f>H44/Q44</f>
         <v>0.91463414634146334</v>
       </c>
-      <c r="L44" s="20"/>
-      <c r="M44" s="22"/>
-      <c r="N44" s="20"/>
-      <c r="Q44" s="12">
+      <c r="L44" s="13"/>
+      <c r="M44" s="15"/>
+      <c r="N44" s="13"/>
+      <c r="Q44" s="6">
         <f>8.3-0.1</f>
         <v>8.2000000000000011</v>
       </c>
-      <c r="R44" s="6"/>
-      <c r="S44" s="6"/>
-    </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="R44" s="3"/>
+      <c r="S44" s="3"/>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>2</v>
       </c>
-      <c r="B45" s="7" t="s">
+      <c r="B45" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C45" s="5" t="s">
+      <c r="C45" s="4" t="s">
         <v>24</v>
       </c>
       <c r="D45" t="s">
         <v>75</v>
       </c>
-      <c r="F45" s="21">
+      <c r="F45" s="14">
         <v>14.7</v>
       </c>
-      <c r="G45" s="21">
+      <c r="G45" s="14">
         <v>1.4</v>
       </c>
-      <c r="H45" s="21">
+      <c r="H45" s="14">
         <v>127.1</v>
       </c>
-      <c r="I45" s="19">
+      <c r="I45" s="12">
         <f t="shared" ref="I45:I57" si="3">F45/Q45</f>
         <v>0.10251046025104602</v>
       </c>
-      <c r="J45" s="19">
+      <c r="J45" s="12">
         <f t="shared" ref="J45:J57" si="4">G45/Q45</f>
         <v>9.7629009762900971E-3</v>
       </c>
-      <c r="K45" s="19">
+      <c r="K45" s="12">
         <f t="shared" ref="K45:K57" si="5">H45/Q45</f>
         <v>0.88633193863319382</v>
       </c>
-      <c r="L45" s="20"/>
-      <c r="M45" s="22"/>
-      <c r="N45" s="20"/>
-      <c r="Q45" s="12">
+      <c r="L45" s="13"/>
+      <c r="M45" s="15"/>
+      <c r="N45" s="13"/>
+      <c r="Q45" s="6">
         <f>145.3-1.9</f>
         <v>143.4</v>
       </c>
-      <c r="R45" s="6"/>
-      <c r="S45" s="6"/>
-    </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="R45" s="3"/>
+      <c r="S45" s="3"/>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>3</v>
       </c>
-      <c r="B46" s="7" t="s">
+      <c r="B46" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C46" s="5" t="s">
+      <c r="C46" s="4" t="s">
         <v>22</v>
       </c>
       <c r="D46" t="s">
         <v>79</v>
       </c>
-      <c r="F46" s="21">
+      <c r="F46" s="14">
         <v>3.2</v>
       </c>
-      <c r="G46" s="21">
+      <c r="G46" s="14">
         <v>0.3</v>
       </c>
-      <c r="H46" s="21">
+      <c r="H46" s="14">
         <v>149.19999999999999</v>
       </c>
-      <c r="I46" s="19">
+      <c r="I46" s="12">
         <f t="shared" si="3"/>
         <v>2.0942408376963352E-2</v>
       </c>
-      <c r="J46" s="19">
+      <c r="J46" s="12">
         <f t="shared" si="4"/>
         <v>1.963350785340314E-3</v>
       </c>
-      <c r="K46" s="19">
+      <c r="K46" s="12">
         <f t="shared" si="5"/>
         <v>0.97643979057591612</v>
       </c>
-      <c r="L46" s="20"/>
-      <c r="M46" s="22"/>
-      <c r="N46" s="20"/>
-      <c r="Q46" s="12">
+      <c r="L46" s="13"/>
+      <c r="M46" s="15"/>
+      <c r="N46" s="13"/>
+      <c r="Q46" s="6">
         <f>154.3-1.5</f>
         <v>152.80000000000001</v>
       </c>
-      <c r="R46" s="6"/>
-      <c r="S46" s="6"/>
-    </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="R46" s="3"/>
+      <c r="S46" s="3"/>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>4</v>
       </c>
-      <c r="B47" s="7" t="s">
+      <c r="B47" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C47" s="5" t="s">
+      <c r="C47" s="4" t="s">
         <v>20</v>
       </c>
       <c r="D47" t="s">
         <v>83</v>
       </c>
-      <c r="F47" s="21">
+      <c r="F47" s="14">
         <v>3.9</v>
       </c>
-      <c r="G47" s="21">
+      <c r="G47" s="14">
         <v>0.4</v>
       </c>
-      <c r="H47" s="21">
+      <c r="H47" s="14">
         <v>388.5</v>
       </c>
-      <c r="I47" s="19">
+      <c r="I47" s="12">
         <f t="shared" si="3"/>
         <v>9.926189870195978E-3</v>
       </c>
-      <c r="J47" s="19">
+      <c r="J47" s="12">
         <f t="shared" si="4"/>
         <v>1.0180707559175363E-3</v>
       </c>
-      <c r="K47" s="19">
+      <c r="K47" s="12">
         <f t="shared" si="5"/>
         <v>0.98880122168490703</v>
       </c>
-      <c r="L47" s="20"/>
-      <c r="M47" s="22"/>
-      <c r="N47" s="20"/>
-      <c r="Q47" s="12">
+      <c r="L47" s="13"/>
+      <c r="M47" s="15"/>
+      <c r="N47" s="13"/>
+      <c r="Q47" s="6">
         <f>400.1-7.2</f>
         <v>392.90000000000003</v>
       </c>
-      <c r="R47" s="6"/>
-      <c r="S47" s="6"/>
-    </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="R47" s="3"/>
+      <c r="S47" s="3"/>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>5</v>
       </c>
-      <c r="B48" s="7" t="s">
+      <c r="B48" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C48" s="5" t="s">
+      <c r="C48" s="4" t="s">
         <v>18</v>
       </c>
       <c r="D48" t="s">
         <v>87</v>
       </c>
-      <c r="F48" s="21">
+      <c r="F48" s="14">
         <v>5.7</v>
       </c>
-      <c r="G48" s="21">
+      <c r="G48" s="14">
         <v>0.6</v>
       </c>
-      <c r="H48" s="21">
+      <c r="H48" s="14">
         <v>57.1</v>
       </c>
-      <c r="I48" s="19">
+      <c r="I48" s="12">
         <f t="shared" si="3"/>
         <v>8.9905362776025247E-2</v>
       </c>
-      <c r="J48" s="19">
+      <c r="J48" s="12">
         <f t="shared" si="4"/>
         <v>9.4637223974763408E-3</v>
       </c>
-      <c r="K48" s="19">
+      <c r="K48" s="12">
         <f t="shared" si="5"/>
         <v>0.90063091482649849</v>
       </c>
-      <c r="L48" s="20"/>
-      <c r="M48" s="22"/>
-      <c r="N48" s="20"/>
-      <c r="Q48" s="12">
+      <c r="L48" s="13"/>
+      <c r="M48" s="15"/>
+      <c r="N48" s="13"/>
+      <c r="Q48" s="6">
         <f>64.5-1.1</f>
         <v>63.4</v>
       </c>
-      <c r="R48" s="6"/>
-      <c r="S48" s="6"/>
-    </row>
-    <row r="49" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="R48" s="3"/>
+      <c r="S48" s="3"/>
+    </row>
+    <row r="49" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>6</v>
       </c>
       <c r="B49">
         <v>22</v>
       </c>
-      <c r="C49" s="5" t="s">
+      <c r="C49" s="4" t="s">
         <v>17</v>
       </c>
       <c r="D49" t="s">
         <v>90</v>
       </c>
-      <c r="F49" s="21">
+      <c r="F49" s="14">
         <v>10.1</v>
       </c>
-      <c r="G49" s="21">
+      <c r="G49" s="14">
         <v>1</v>
       </c>
-      <c r="H49" s="21">
+      <c r="H49" s="14">
         <v>19.899999999999999</v>
       </c>
-      <c r="I49" s="19">
+      <c r="I49" s="12">
         <f t="shared" si="3"/>
         <v>0.32580645161290323</v>
       </c>
-      <c r="J49" s="19">
+      <c r="J49" s="12">
         <f t="shared" si="4"/>
         <v>3.2258064516129031E-2</v>
       </c>
-      <c r="K49" s="19">
+      <c r="K49" s="12">
         <f t="shared" si="5"/>
         <v>0.64193548387096766</v>
       </c>
-      <c r="L49" s="20"/>
-      <c r="M49" s="22"/>
-      <c r="N49" s="20"/>
-      <c r="Q49" s="12">
+      <c r="L49" s="13"/>
+      <c r="M49" s="15"/>
+      <c r="N49" s="13"/>
+      <c r="Q49" s="6">
         <f>31.4-0.4</f>
         <v>31</v>
       </c>
-      <c r="R49" s="6"/>
-      <c r="S49" s="6"/>
-    </row>
-    <row r="50" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="R49" s="3"/>
+      <c r="S49" s="3"/>
+    </row>
+    <row r="50" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>7</v>
       </c>
-      <c r="B50" s="7" t="s">
+      <c r="B50" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C50" s="5" t="s">
+      <c r="C50" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D50" t="s">
         <v>93</v>
       </c>
-      <c r="F50" s="21">
+      <c r="F50" s="14">
         <v>2</v>
       </c>
-      <c r="G50" s="21">
+      <c r="G50" s="14">
         <v>0.2</v>
       </c>
-      <c r="H50" s="21">
+      <c r="H50" s="14">
         <v>63.7</v>
       </c>
-      <c r="I50" s="19">
+      <c r="I50" s="12">
         <f t="shared" si="3"/>
         <v>3.0349013657056143E-2</v>
       </c>
-      <c r="J50" s="19">
+      <c r="J50" s="12">
         <f t="shared" si="4"/>
         <v>3.0349013657056147E-3</v>
       </c>
-      <c r="K50" s="19">
+      <c r="K50" s="12">
         <f t="shared" si="5"/>
         <v>0.96661608497723817</v>
       </c>
-      <c r="L50" s="20"/>
-      <c r="M50" s="22"/>
-      <c r="N50" s="20"/>
-      <c r="Q50" s="12">
+      <c r="L50" s="13"/>
+      <c r="M50" s="15"/>
+      <c r="N50" s="13"/>
+      <c r="Q50" s="6">
         <f>66.9-1</f>
         <v>65.900000000000006</v>
       </c>
-      <c r="R50" s="6"/>
-      <c r="S50" s="6"/>
-    </row>
-    <row r="51" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="R50" s="3"/>
+      <c r="S50" s="3"/>
+    </row>
+    <row r="51" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>8</v>
       </c>
-      <c r="B51" s="7" t="s">
+      <c r="B51" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C51" s="5" t="s">
+      <c r="C51" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D51" t="s">
         <v>96</v>
       </c>
-      <c r="F51" s="21">
+      <c r="F51" s="14">
         <v>2.6</v>
       </c>
-      <c r="G51" s="21">
+      <c r="G51" s="14">
         <v>0.3</v>
       </c>
-      <c r="H51" s="21">
+      <c r="H51" s="14">
         <v>163.6</v>
       </c>
-      <c r="I51" s="19">
+      <c r="I51" s="12">
         <f t="shared" si="3"/>
         <v>1.5615615615615617E-2</v>
       </c>
-      <c r="J51" s="19">
+      <c r="J51" s="12">
         <f t="shared" si="4"/>
         <v>1.8018018018018018E-3</v>
       </c>
-      <c r="K51" s="19">
+      <c r="K51" s="12">
         <f t="shared" si="5"/>
         <v>0.98258258258258258</v>
       </c>
-      <c r="L51" s="20"/>
-      <c r="M51" s="22"/>
-      <c r="N51" s="20"/>
-      <c r="Q51" s="12">
+      <c r="L51" s="13"/>
+      <c r="M51" s="15"/>
+      <c r="N51" s="13"/>
+      <c r="Q51" s="6">
         <f>169.5-3</f>
         <v>166.5</v>
       </c>
-      <c r="R51" s="6"/>
-      <c r="S51" s="6"/>
-    </row>
-    <row r="52" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="R51" s="3"/>
+      <c r="S51" s="3"/>
+    </row>
+    <row r="52" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>9</v>
       </c>
-      <c r="B52" s="7" t="s">
+      <c r="B52" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C52" s="5" t="s">
+      <c r="C52" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D52" t="s">
         <v>99</v>
       </c>
-      <c r="F52" s="21">
+      <c r="F52" s="14">
         <v>1.8</v>
       </c>
-      <c r="G52" s="21">
+      <c r="G52" s="14">
         <v>0.2</v>
       </c>
-      <c r="H52" s="21">
+      <c r="H52" s="14">
         <v>463.4</v>
       </c>
-      <c r="I52" s="19">
+      <c r="I52" s="12">
         <f t="shared" si="3"/>
         <v>3.867640739149119E-3</v>
       </c>
-      <c r="J52" s="19">
+      <c r="J52" s="12">
         <f t="shared" si="4"/>
         <v>4.2973785990545768E-4</v>
       </c>
-      <c r="K52" s="19">
+      <c r="K52" s="12">
         <f t="shared" si="5"/>
         <v>0.99570262140094534</v>
       </c>
-      <c r="L52" s="20"/>
-      <c r="M52" s="22"/>
-      <c r="N52" s="20"/>
-      <c r="Q52" s="12">
+      <c r="L52" s="13"/>
+      <c r="M52" s="15"/>
+      <c r="N52" s="13"/>
+      <c r="Q52" s="6">
         <f>471.6-6.2</f>
         <v>465.40000000000003</v>
       </c>
-      <c r="R52" s="6"/>
-      <c r="S52" s="6"/>
-    </row>
-    <row r="53" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="R52" s="3"/>
+      <c r="S52" s="3"/>
+    </row>
+    <row r="53" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>10</v>
       </c>
-      <c r="B53" s="7" t="s">
+      <c r="B53" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C53" s="5" t="s">
+      <c r="C53" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D53" t="s">
         <v>101</v>
       </c>
-      <c r="F53" s="21">
+      <c r="F53" s="14">
         <v>3.5</v>
       </c>
-      <c r="G53" s="21">
+      <c r="G53" s="14">
         <v>0.3</v>
       </c>
-      <c r="H53" s="21">
+      <c r="H53" s="14">
         <v>50.9</v>
       </c>
-      <c r="I53" s="19">
+      <c r="I53" s="12">
         <f t="shared" si="3"/>
         <v>6.3868613138686123E-2</v>
       </c>
-      <c r="J53" s="19">
+      <c r="J53" s="12">
         <f t="shared" si="4"/>
         <v>5.4744525547445249E-3</v>
       </c>
-      <c r="K53" s="19">
+      <c r="K53" s="12">
         <f t="shared" si="5"/>
         <v>0.92883211678832112</v>
       </c>
-      <c r="L53" s="20"/>
-      <c r="M53" s="22"/>
-      <c r="N53" s="20"/>
-      <c r="Q53" s="12">
+      <c r="L53" s="13"/>
+      <c r="M53" s="15"/>
+      <c r="N53" s="13"/>
+      <c r="Q53" s="6">
         <f>55.6-0.8</f>
         <v>54.800000000000004</v>
       </c>
-      <c r="R53" s="6"/>
-      <c r="S53" s="6"/>
-    </row>
-    <row r="54" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="R53" s="3"/>
+      <c r="S53" s="3"/>
+    </row>
+    <row r="54" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>11</v>
       </c>
-      <c r="B54" s="7" t="s">
+      <c r="B54" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C54" s="5" t="s">
+      <c r="C54" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D54" t="s">
         <v>106</v>
       </c>
-      <c r="F54" s="21">
+      <c r="F54" s="14">
         <v>18.3</v>
       </c>
-      <c r="G54" s="21">
+      <c r="G54" s="14">
         <v>1.8</v>
       </c>
-      <c r="H54" s="21">
+      <c r="H54" s="14">
         <v>34.4</v>
       </c>
-      <c r="I54" s="19">
+      <c r="I54" s="12">
         <f t="shared" si="3"/>
         <v>0.33577981651376149</v>
       </c>
-      <c r="J54" s="19">
+      <c r="J54" s="12">
         <f t="shared" si="4"/>
         <v>3.3027522935779818E-2</v>
       </c>
-      <c r="K54" s="19">
+      <c r="K54" s="12">
         <f t="shared" si="5"/>
         <v>0.63119266055045864</v>
       </c>
-      <c r="L54" s="20"/>
-      <c r="M54" s="22"/>
-      <c r="N54" s="20"/>
-      <c r="Q54" s="12">
+      <c r="L54" s="13"/>
+      <c r="M54" s="15"/>
+      <c r="N54" s="13"/>
+      <c r="Q54" s="6">
         <f>55.2-0.7</f>
         <v>54.5</v>
       </c>
-      <c r="R54" s="6"/>
-      <c r="S54" s="6"/>
-    </row>
-    <row r="55" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="R54" s="3"/>
+      <c r="S54" s="3"/>
+    </row>
+    <row r="55" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>12</v>
       </c>
-      <c r="B55" s="7" t="s">
+      <c r="B55" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C55" s="5" t="s">
+      <c r="C55" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D55" t="s">
         <v>102</v>
       </c>
-      <c r="F55" s="21">
+      <c r="F55" s="14">
         <v>23.7</v>
       </c>
-      <c r="G55" s="21">
+      <c r="G55" s="14">
         <v>2.6</v>
       </c>
-      <c r="H55" s="21">
+      <c r="H55" s="14">
         <v>7.4</v>
       </c>
-      <c r="I55" s="19">
+      <c r="I55" s="12">
         <f t="shared" si="3"/>
         <v>0.70118343195266275</v>
       </c>
-      <c r="J55" s="19">
+      <c r="J55" s="12">
         <f t="shared" si="4"/>
         <v>7.6923076923076927E-2</v>
       </c>
-      <c r="K55" s="19">
+      <c r="K55" s="12">
         <f t="shared" si="5"/>
         <v>0.21893491124260359</v>
       </c>
-      <c r="L55" s="20"/>
-      <c r="M55" s="22"/>
-      <c r="N55" s="20"/>
-      <c r="Q55" s="12">
+      <c r="L55" s="13"/>
+      <c r="M55" s="15"/>
+      <c r="N55" s="13"/>
+      <c r="Q55" s="6">
         <f>34.3-0.5</f>
         <v>33.799999999999997</v>
       </c>
-      <c r="R55" s="6"/>
-      <c r="S55" s="6"/>
-    </row>
-    <row r="56" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>13</v>
       </c>
-      <c r="B56" s="7" t="s">
+      <c r="B56" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C56" s="5" t="s">
+      <c r="C56" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D56" t="s">
         <v>109</v>
       </c>
-      <c r="F56" s="21">
+      <c r="F56" s="14">
         <v>22.7</v>
       </c>
-      <c r="G56" s="21">
+      <c r="G56" s="14">
         <v>2.2000000000000002</v>
       </c>
-      <c r="H56" s="21">
+      <c r="H56" s="14">
         <v>35.700000000000003</v>
       </c>
-      <c r="I56" s="19">
+      <c r="I56" s="12">
         <f t="shared" si="3"/>
         <v>0.37458745874587462</v>
       </c>
-      <c r="J56" s="19">
+      <c r="J56" s="12">
         <f t="shared" si="4"/>
         <v>3.6303630363036313E-2</v>
       </c>
-      <c r="K56" s="19">
+      <c r="K56" s="12">
         <f t="shared" si="5"/>
         <v>0.58910891089108919</v>
       </c>
-      <c r="L56" s="20"/>
-      <c r="M56" s="22"/>
-      <c r="N56" s="20"/>
-      <c r="Q56" s="12">
+      <c r="L56" s="13"/>
+      <c r="M56" s="15"/>
+      <c r="N56" s="13"/>
+      <c r="Q56" s="6">
         <f>61.3-0.7</f>
         <v>60.599999999999994</v>
       </c>
-      <c r="R56" s="6"/>
-      <c r="S56" s="6"/>
-    </row>
-    <row r="57" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>14</v>
       </c>
       <c r="B57" t="s">
         <v>2</v>
       </c>
-      <c r="C57" s="5" t="s">
+      <c r="C57" s="4" t="s">
         <v>1</v>
       </c>
       <c r="D57" t="s">
         <v>116</v>
       </c>
-      <c r="F57" s="21">
+      <c r="F57" s="14">
         <v>32.9</v>
       </c>
-      <c r="G57" s="21">
+      <c r="G57" s="14">
         <v>3.5</v>
       </c>
-      <c r="H57" s="21">
+      <c r="H57" s="14">
         <v>79</v>
       </c>
-      <c r="I57" s="19">
+      <c r="I57" s="12">
         <f t="shared" si="3"/>
         <v>0.28509532062391679</v>
       </c>
-      <c r="J57" s="19">
+      <c r="J57" s="12">
         <f t="shared" si="4"/>
         <v>3.0329289428076254E-2</v>
       </c>
-      <c r="K57" s="19">
+      <c r="K57" s="12">
         <f t="shared" si="5"/>
         <v>0.68457538994800693</v>
       </c>
-      <c r="L57" s="20"/>
-      <c r="M57" s="22"/>
-      <c r="N57" s="20"/>
-      <c r="Q57" s="12">
+      <c r="L57" s="13"/>
+      <c r="M57" s="15"/>
+      <c r="N57" s="13"/>
+      <c r="Q57" s="6">
         <f>117-1.6</f>
         <v>115.4</v>
       </c>
-      <c r="R57" s="6"/>
-      <c r="S57" s="6"/>
-    </row>
-    <row r="59" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A59" s="26" t="s">
+      <c r="R57" s="3"/>
+      <c r="S57" s="3"/>
+    </row>
+    <row r="59" spans="1:54" x14ac:dyDescent="0.3">
+      <c r="A59" s="20" t="s">
         <v>124</v>
       </c>
-      <c r="B59" s="26"/>
-      <c r="C59" s="26"/>
-      <c r="D59" s="26"/>
-      <c r="E59" s="26"/>
-      <c r="F59" s="26"/>
-      <c r="G59" s="26"/>
-      <c r="H59" s="26"/>
-      <c r="M59" s="27" t="s">
+      <c r="B59" s="20"/>
+      <c r="C59" s="20"/>
+      <c r="D59" s="20"/>
+      <c r="E59" s="20"/>
+      <c r="F59" s="20"/>
+      <c r="G59" s="20"/>
+      <c r="H59" s="20"/>
+      <c r="M59" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="N59" s="27"/>
-      <c r="O59" s="27"/>
-      <c r="P59" s="27"/>
-      <c r="Q59" s="27"/>
-      <c r="R59" s="27"/>
-      <c r="S59" s="28" t="s">
+      <c r="N59" s="19"/>
+      <c r="O59" s="19"/>
+      <c r="P59" s="19"/>
+      <c r="Q59" s="19"/>
+      <c r="R59" s="19"/>
+      <c r="S59" s="21" t="s">
         <v>126</v>
       </c>
-      <c r="T59" s="29"/>
-      <c r="U59" s="29"/>
-      <c r="V59" s="29"/>
-      <c r="W59" s="29"/>
-      <c r="X59" s="29"/>
-      <c r="Y59" s="27" t="s">
+      <c r="T59" s="22"/>
+      <c r="U59" s="22"/>
+      <c r="V59" s="22"/>
+      <c r="W59" s="22"/>
+      <c r="X59" s="22"/>
+      <c r="Y59" s="19" t="s">
         <v>127</v>
       </c>
-      <c r="Z59" s="27"/>
-      <c r="AA59" s="27"/>
-      <c r="AB59" s="27"/>
-      <c r="AC59" s="27"/>
-      <c r="AD59" s="27"/>
-      <c r="AE59" s="27" t="s">
+      <c r="Z59" s="19"/>
+      <c r="AA59" s="19"/>
+      <c r="AB59" s="19"/>
+      <c r="AC59" s="19"/>
+      <c r="AD59" s="19"/>
+      <c r="AE59" s="19" t="s">
         <v>128</v>
       </c>
-      <c r="AF59" s="27"/>
-      <c r="AG59" s="27"/>
-      <c r="AH59" s="27"/>
-      <c r="AI59" s="27"/>
-      <c r="AJ59" s="27"/>
-      <c r="AK59" s="27" t="s">
+      <c r="AF59" s="19"/>
+      <c r="AG59" s="19"/>
+      <c r="AH59" s="19"/>
+      <c r="AI59" s="19"/>
+      <c r="AJ59" s="19"/>
+      <c r="AK59" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="AL59" s="27"/>
-      <c r="AM59" s="27"/>
-      <c r="AN59" s="27"/>
-      <c r="AO59" s="27"/>
-      <c r="AP59" s="27"/>
-      <c r="AQ59" s="27" t="s">
+      <c r="AL59" s="19"/>
+      <c r="AM59" s="19"/>
+      <c r="AN59" s="19"/>
+      <c r="AO59" s="19"/>
+      <c r="AP59" s="19"/>
+      <c r="AQ59" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="AR59" s="27"/>
-      <c r="AS59" s="27"/>
-      <c r="AT59" s="27"/>
-      <c r="AU59" s="27"/>
-      <c r="AV59" s="27"/>
-      <c r="AW59" s="27" t="s">
+      <c r="AR59" s="19"/>
+      <c r="AS59" s="19"/>
+      <c r="AT59" s="19"/>
+      <c r="AU59" s="19"/>
+      <c r="AV59" s="19"/>
+      <c r="AW59" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="AX59" s="27"/>
-      <c r="AY59" s="27"/>
-      <c r="AZ59" s="27"/>
-      <c r="BA59" s="27"/>
-      <c r="BB59" s="27"/>
-    </row>
-    <row r="60" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="AX59" s="19"/>
+      <c r="AY59" s="19"/>
+      <c r="AZ59" s="19"/>
+      <c r="BA59" s="19"/>
+      <c r="BB59" s="19"/>
+    </row>
+    <row r="60" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>131</v>
       </c>
-      <c r="B60" s="7" t="s">
+      <c r="B60" s="5" t="s">
         <v>36</v>
       </c>
       <c r="C60" t="s">
@@ -7630,7 +7620,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="61" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:54" x14ac:dyDescent="0.3">
       <c r="F61" t="s">
         <v>28</v>
       </c>
@@ -7773,25 +7763,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>1</v>
       </c>
       <c r="B62">
         <v>8</v>
       </c>
-      <c r="C62" s="5" t="s">
+      <c r="C62" s="4" t="s">
         <v>26</v>
       </c>
       <c r="D62" t="s">
         <v>71</v>
       </c>
-      <c r="F62" s="21"/>
-      <c r="G62" s="21"/>
-      <c r="H62" s="21"/>
-      <c r="I62" s="19"/>
-      <c r="J62" s="19"/>
-      <c r="K62" s="19"/>
+      <c r="F62" s="14"/>
+      <c r="G62" s="14"/>
+      <c r="H62" s="14"/>
+      <c r="I62" s="12"/>
+      <c r="J62" s="12"/>
+      <c r="K62" s="12"/>
       <c r="M62" t="s">
         <v>145</v>
       </c>
@@ -7919,40 +7909,40 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>2</v>
       </c>
-      <c r="B63" s="7" t="s">
+      <c r="B63" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C63" s="5" t="s">
+      <c r="C63" s="4" t="s">
         <v>24</v>
       </c>
       <c r="D63" t="s">
         <v>75</v>
       </c>
-      <c r="F63" s="20">
+      <c r="F63" s="13">
         <f>AVERAGE(AR61:AR66)</f>
         <v>0.52500000000000002</v>
       </c>
-      <c r="G63" s="20">
+      <c r="G63" s="13">
         <f t="shared" ref="G63:J63" si="6">AVERAGE(AS61:AS66)</f>
         <v>0.30833333333333329</v>
       </c>
-      <c r="H63" s="20">
+      <c r="H63" s="13">
         <f t="shared" si="6"/>
         <v>0.23</v>
       </c>
-      <c r="I63" s="20">
+      <c r="I63" s="13">
         <f t="shared" si="6"/>
         <v>0.12833333333333333</v>
       </c>
-      <c r="J63" s="20">
+      <c r="J63" s="13">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="K63" s="19"/>
+      <c r="K63" s="12"/>
       <c r="M63" t="s">
         <v>152</v>
       </c>
@@ -8080,40 +8070,40 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>3</v>
       </c>
-      <c r="B64" s="7" t="s">
+      <c r="B64" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C64" s="5" t="s">
+      <c r="C64" s="4" t="s">
         <v>22</v>
       </c>
       <c r="D64" t="s">
         <v>79</v>
       </c>
-      <c r="F64" s="20">
+      <c r="F64" s="13">
         <f>AVERAGE(Z61:Z63)</f>
         <v>1.6666666666666666E-2</v>
       </c>
-      <c r="G64" s="20">
+      <c r="G64" s="13">
         <f t="shared" ref="G64:J64" si="7">AVERAGE(AA61:AA63)</f>
         <v>0.96</v>
       </c>
-      <c r="H64" s="20">
+      <c r="H64" s="13">
         <f t="shared" si="7"/>
         <v>1.6666666666666666E-2</v>
       </c>
-      <c r="I64" s="20">
+      <c r="I64" s="13">
         <f t="shared" si="7"/>
         <v>6.6666666666666671E-3</v>
       </c>
-      <c r="J64" s="20">
+      <c r="J64" s="13">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="K64" s="19"/>
+      <c r="K64" s="12"/>
       <c r="M64" t="s">
         <v>159</v>
       </c>
@@ -8205,40 +8195,40 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>4</v>
       </c>
-      <c r="B65" s="7" t="s">
+      <c r="B65" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C65" s="5" t="s">
+      <c r="C65" s="4" t="s">
         <v>20</v>
       </c>
       <c r="D65" t="s">
         <v>83</v>
       </c>
-      <c r="F65" s="20">
+      <c r="F65" s="13">
         <f>AVERAGE(AL61:AL74)</f>
         <v>2.1428571428571429E-2</v>
       </c>
-      <c r="G65" s="20">
+      <c r="G65" s="13">
         <f>AVERAGE(AM61:AM74)</f>
         <v>0.51428571428571435</v>
       </c>
-      <c r="H65" s="20">
+      <c r="H65" s="13">
         <f>AVERAGE(AN61:AN74)</f>
         <v>3.4285714285714287E-2</v>
       </c>
-      <c r="I65" s="20">
+      <c r="I65" s="13">
         <f>AVERAGE(AO61:AO74)</f>
         <v>0.17714285714285719</v>
       </c>
-      <c r="J65" s="20">
+      <c r="J65" s="13">
         <f>AVERAGE(AP61:AP74)</f>
         <v>0.25214285714285717</v>
       </c>
-      <c r="K65" s="19"/>
+      <c r="K65" s="12"/>
       <c r="M65" t="s">
         <v>164</v>
       </c>
@@ -8330,25 +8320,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>5</v>
       </c>
-      <c r="B66" s="7" t="s">
+      <c r="B66" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C66" s="5" t="s">
+      <c r="C66" s="4" t="s">
         <v>18</v>
       </c>
       <c r="D66" t="s">
         <v>87</v>
       </c>
-      <c r="F66" s="21"/>
-      <c r="G66" s="21"/>
-      <c r="H66" s="21"/>
-      <c r="I66" s="19"/>
-      <c r="J66" s="19"/>
-      <c r="K66" s="19"/>
+      <c r="F66" s="14"/>
+      <c r="G66" s="14"/>
+      <c r="H66" s="14"/>
+      <c r="I66" s="12"/>
+      <c r="J66" s="12"/>
+      <c r="K66" s="12"/>
       <c r="M66" t="s">
         <v>169</v>
       </c>
@@ -8440,25 +8430,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>6</v>
       </c>
       <c r="B67">
         <v>22</v>
       </c>
-      <c r="C67" s="5" t="s">
+      <c r="C67" s="4" t="s">
         <v>17</v>
       </c>
       <c r="D67" t="s">
         <v>90</v>
       </c>
-      <c r="F67" s="21"/>
-      <c r="G67" s="21"/>
-      <c r="H67" s="21"/>
-      <c r="I67" s="19"/>
-      <c r="J67" s="19"/>
-      <c r="K67" s="19"/>
+      <c r="F67" s="14"/>
+      <c r="G67" s="14"/>
+      <c r="H67" s="14"/>
+      <c r="I67" s="12"/>
+      <c r="J67" s="12"/>
+      <c r="K67" s="12"/>
       <c r="S67" t="s">
         <v>174</v>
       </c>
@@ -8514,25 +8504,25 @@
         <v>0.78</v>
       </c>
     </row>
-    <row r="68" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>7</v>
       </c>
-      <c r="B68" s="7" t="s">
+      <c r="B68" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C68" s="5" t="s">
+      <c r="C68" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D68" t="s">
         <v>93</v>
       </c>
-      <c r="F68" s="21"/>
-      <c r="G68" s="21"/>
-      <c r="H68" s="21"/>
-      <c r="I68" s="19"/>
-      <c r="J68" s="19"/>
-      <c r="K68" s="19"/>
+      <c r="F68" s="14"/>
+      <c r="G68" s="14"/>
+      <c r="H68" s="14"/>
+      <c r="I68" s="12"/>
+      <c r="J68" s="12"/>
+      <c r="K68" s="12"/>
       <c r="S68" t="s">
         <v>177</v>
       </c>
@@ -8588,40 +8578,40 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>8</v>
       </c>
-      <c r="B69" s="7" t="s">
+      <c r="B69" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C69" s="5" t="s">
+      <c r="C69" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D69" t="s">
         <v>96</v>
       </c>
-      <c r="F69" s="20">
+      <c r="F69" s="13">
         <f>AVERAGE(AF61:AF76)</f>
         <v>0.24687500000000001</v>
       </c>
-      <c r="G69" s="20">
+      <c r="G69" s="13">
         <f t="shared" ref="G69:J69" si="8">AVERAGE(AG61:AG76)</f>
         <v>9.8125000000000004E-2</v>
       </c>
-      <c r="H69" s="20">
+      <c r="H69" s="13">
         <f t="shared" si="8"/>
         <v>0.11562500000000002</v>
       </c>
-      <c r="I69" s="20">
+      <c r="I69" s="13">
         <f t="shared" si="8"/>
         <v>0.27625000000000005</v>
       </c>
-      <c r="J69" s="20">
+      <c r="J69" s="13">
         <f t="shared" si="8"/>
         <v>0.26312499999999994</v>
       </c>
-      <c r="K69" s="19"/>
+      <c r="K69" s="12"/>
       <c r="S69" t="s">
         <v>180</v>
       </c>
@@ -8677,40 +8667,40 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>9</v>
       </c>
-      <c r="B70" s="7" t="s">
+      <c r="B70" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C70" s="5" t="s">
+      <c r="C70" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D70" t="s">
         <v>99</v>
       </c>
-      <c r="F70" s="20">
+      <c r="F70" s="13">
         <f>AVERAGE(N61:N66)</f>
         <v>1.6666666666666668E-3</v>
       </c>
-      <c r="G70" s="20">
+      <c r="G70" s="13">
         <f t="shared" ref="G70:J70" si="9">AVERAGE(O61:O66)</f>
         <v>1.6666666666666668E-3</v>
       </c>
-      <c r="H70" s="20">
+      <c r="H70" s="13">
         <f t="shared" si="9"/>
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="I70" s="20">
+      <c r="I70" s="13">
         <f t="shared" si="9"/>
         <v>0.39999999999999997</v>
       </c>
-      <c r="J70" s="20">
+      <c r="J70" s="13">
         <f t="shared" si="9"/>
         <v>0.51166666666666671</v>
       </c>
-      <c r="K70" s="19"/>
+      <c r="K70" s="12"/>
       <c r="S70" t="s">
         <v>183</v>
       </c>
@@ -8766,40 +8756,40 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>10</v>
       </c>
-      <c r="B71" s="7" t="s">
+      <c r="B71" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C71" s="5" t="s">
+      <c r="C71" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D71" t="s">
         <v>101</v>
       </c>
-      <c r="F71" s="20">
+      <c r="F71" s="13">
         <f>AVERAGE(T61:T70)</f>
         <v>2.8000000000000004E-2</v>
       </c>
-      <c r="G71" s="20">
+      <c r="G71" s="13">
         <f t="shared" ref="G71:J71" si="10">AVERAGE(U61:U70)</f>
         <v>0</v>
       </c>
-      <c r="H71" s="20">
+      <c r="H71" s="13">
         <f t="shared" si="10"/>
         <v>0.43</v>
       </c>
-      <c r="I71" s="20">
+      <c r="I71" s="13">
         <f t="shared" si="10"/>
         <v>0.34199999999999997</v>
       </c>
-      <c r="J71" s="20">
+      <c r="J71" s="13">
         <f t="shared" si="10"/>
         <v>0.2</v>
       </c>
-      <c r="K71" s="19"/>
+      <c r="K71" s="12"/>
       <c r="AE71" t="s">
         <v>186</v>
       </c>
@@ -8837,25 +8827,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>11</v>
       </c>
-      <c r="B72" s="7" t="s">
+      <c r="B72" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C72" s="5" t="s">
+      <c r="C72" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D72" t="s">
         <v>106</v>
       </c>
-      <c r="F72" s="21"/>
-      <c r="G72" s="21"/>
-      <c r="H72" s="21"/>
-      <c r="I72" s="19"/>
-      <c r="J72" s="19"/>
-      <c r="K72" s="19"/>
+      <c r="F72" s="14"/>
+      <c r="G72" s="14"/>
+      <c r="H72" s="14"/>
+      <c r="I72" s="12"/>
+      <c r="J72" s="12"/>
+      <c r="K72" s="12"/>
       <c r="AE72" t="s">
         <v>188</v>
       </c>
@@ -8893,25 +8883,25 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="73" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>12</v>
       </c>
-      <c r="B73" s="7" t="s">
+      <c r="B73" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C73" s="5" t="s">
+      <c r="C73" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D73" t="s">
         <v>102</v>
       </c>
-      <c r="F73" s="21"/>
-      <c r="G73" s="21"/>
-      <c r="H73" s="21"/>
-      <c r="I73" s="19"/>
-      <c r="J73" s="19"/>
-      <c r="K73" s="19"/>
+      <c r="F73" s="14"/>
+      <c r="G73" s="14"/>
+      <c r="H73" s="14"/>
+      <c r="I73" s="12"/>
+      <c r="J73" s="12"/>
+      <c r="K73" s="12"/>
       <c r="AE73" t="s">
         <v>190</v>
       </c>
@@ -8949,25 +8939,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>13</v>
       </c>
-      <c r="B74" s="7" t="s">
+      <c r="B74" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C74" s="5" t="s">
+      <c r="C74" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D74" t="s">
         <v>109</v>
       </c>
-      <c r="F74" s="21"/>
-      <c r="G74" s="21"/>
-      <c r="H74" s="21"/>
-      <c r="I74" s="19"/>
-      <c r="J74" s="19"/>
-      <c r="K74" s="19"/>
+      <c r="F74" s="14"/>
+      <c r="G74" s="14"/>
+      <c r="H74" s="14"/>
+      <c r="I74" s="12"/>
+      <c r="J74" s="12"/>
+      <c r="K74" s="12"/>
       <c r="AE74" t="s">
         <v>192</v>
       </c>
@@ -9005,40 +8995,40 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="75" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>14</v>
       </c>
       <c r="B75" t="s">
         <v>2</v>
       </c>
-      <c r="C75" s="5" t="s">
+      <c r="C75" s="4" t="s">
         <v>1</v>
       </c>
       <c r="D75" t="s">
         <v>116</v>
       </c>
-      <c r="F75" s="20">
+      <c r="F75" s="13">
         <f>AVERAGE(AX61:AX63)</f>
         <v>0.20000000000000004</v>
       </c>
-      <c r="G75" s="20">
+      <c r="G75" s="13">
         <f t="shared" ref="G75:J75" si="11">AVERAGE(AY61:AY63)</f>
         <v>0.5</v>
       </c>
-      <c r="H75" s="20">
+      <c r="H75" s="13">
         <f t="shared" si="11"/>
         <v>0.3</v>
       </c>
-      <c r="I75" s="20">
+      <c r="I75" s="13">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="J75" s="20">
+      <c r="J75" s="13">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="K75" s="19"/>
+      <c r="K75" s="12"/>
       <c r="AE75" t="s">
         <v>194</v>
       </c>
@@ -9058,7 +9048,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="76" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:48" x14ac:dyDescent="0.3">
       <c r="AE76" t="s">
         <v>195</v>
       </c>
@@ -9080,24 +9070,520 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="Y59:AD59"/>
-    <mergeCell ref="AE59:AJ59"/>
-    <mergeCell ref="AK59:AP59"/>
-    <mergeCell ref="AQ59:AV59"/>
-    <mergeCell ref="AW59:BB59"/>
+    <mergeCell ref="A21:L21"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="Q3:S3"/>
+    <mergeCell ref="T3:V3"/>
+    <mergeCell ref="Q4:S4"/>
+    <mergeCell ref="T4:V4"/>
     <mergeCell ref="A41:H41"/>
     <mergeCell ref="Q42:S42"/>
     <mergeCell ref="Q43:S43"/>
     <mergeCell ref="A59:H59"/>
     <mergeCell ref="M59:R59"/>
     <mergeCell ref="S59:X59"/>
-    <mergeCell ref="A21:L21"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="Q3:S3"/>
-    <mergeCell ref="T3:V3"/>
-    <mergeCell ref="Q4:S4"/>
-    <mergeCell ref="T4:V4"/>
+    <mergeCell ref="Y59:AD59"/>
+    <mergeCell ref="AE59:AJ59"/>
+    <mergeCell ref="AK59:AP59"/>
+    <mergeCell ref="AQ59:AV59"/>
+    <mergeCell ref="AW59:BB59"/>
   </mergeCells>
+  <conditionalFormatting sqref="E23:F36">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E23:J36">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F37:J38 F25:F36">
+    <cfRule type="colorScale" priority="45">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F62:J75">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I44:I57">
+    <cfRule type="colorScale" priority="35">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="37">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="41">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I72:I74 I62 I66:I68">
+    <cfRule type="colorScale" priority="15">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I72:I74">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I44:K57">
+    <cfRule type="colorScale" priority="19">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I62:K62 I72:K74 I66:K68 K69:K71 K63:K65 K75">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I62:K62">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I44:M57">
+    <cfRule type="colorScale" priority="42">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="40">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J44:J57">
+    <cfRule type="colorScale" priority="36">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="34">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J72:J74 J62 J66:J68">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J72:J74">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K44:K57">
+    <cfRule type="colorScale" priority="33">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="28">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="30">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="31">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="32">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K62:K75">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L6">
+    <cfRule type="colorScale" priority="66">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L7">
+    <cfRule type="colorScale" priority="50">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L8">
+    <cfRule type="colorScale" priority="54">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L10">
+    <cfRule type="colorScale" priority="57">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L11">
+    <cfRule type="colorScale" priority="60">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L16">
+    <cfRule type="colorScale" priority="63">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L44:L57">
+    <cfRule type="colorScale" priority="29">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="27">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="25">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L5:M18">
+    <cfRule type="colorScale" priority="46">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L7:M7">
+    <cfRule type="colorScale" priority="52">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L8:M8">
+    <cfRule type="colorScale" priority="56">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L10:M10">
+    <cfRule type="colorScale" priority="59">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L11:M11">
+    <cfRule type="colorScale" priority="62">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L6:O6 O7 O5">
+    <cfRule type="colorScale" priority="68">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="L12:O15 L5:M11 L16:M18 F5:J19">
     <cfRule type="colorScale" priority="69">
       <colorScale>
@@ -9110,8 +9596,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L6:O6 O7 O5">
-    <cfRule type="colorScale" priority="68">
+  <conditionalFormatting sqref="L16:O16 O17">
+    <cfRule type="colorScale" priority="65">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9122,6 +9608,68 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="M7">
+    <cfRule type="colorScale" priority="51">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M8">
+    <cfRule type="colorScale" priority="55">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M10">
+    <cfRule type="colorScale" priority="58">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M11">
+    <cfRule type="colorScale" priority="61">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M44:M57">
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="24">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="M6:O6 O7 O5">
     <cfRule type="colorScale" priority="67">
       <colorScale>
@@ -9132,8 +9680,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L6">
-    <cfRule type="colorScale" priority="66">
+  <conditionalFormatting sqref="M16:O16 O17">
+    <cfRule type="colorScale" priority="64">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9142,8 +9690,74 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L16:O16 O17">
-    <cfRule type="colorScale" priority="65">
+  <conditionalFormatting sqref="N44:N57">
+    <cfRule type="colorScale" priority="23">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="21">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N8:O11">
+    <cfRule type="colorScale" priority="53">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O18">
+    <cfRule type="colorScale" priority="49">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q5:Q18">
+    <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9153,9 +9767,7 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M16:O16 O17">
-    <cfRule type="colorScale" priority="64">
+    <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9164,8 +9776,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L16">
-    <cfRule type="colorScale" priority="63">
+  <conditionalFormatting sqref="Q19:S19 R5:S18">
+    <cfRule type="colorScale" priority="47">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9173,9 +9785,7 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L11:M11">
-    <cfRule type="colorScale" priority="62">
+    <cfRule type="colorScale" priority="48">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9186,8 +9796,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M11">
-    <cfRule type="colorScale" priority="61">
+  <conditionalFormatting sqref="Q25:S38">
+    <cfRule type="colorScale" priority="43">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9195,19 +9805,7 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L11">
-    <cfRule type="colorScale" priority="60">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L10:M10">
-    <cfRule type="colorScale" priority="59">
+    <cfRule type="colorScale" priority="44">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9218,8 +9816,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M10">
-    <cfRule type="colorScale" priority="58">
+  <conditionalFormatting sqref="Q44:S57">
+    <cfRule type="colorScale" priority="38">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9227,669 +9825,13 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L10">
-    <cfRule type="colorScale" priority="57">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L8:M8">
-    <cfRule type="colorScale" priority="56">
+    <cfRule type="colorScale" priority="39">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
         <color rgb="FF5A8AC6"/>
         <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M8">
-    <cfRule type="colorScale" priority="55">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L8">
-    <cfRule type="colorScale" priority="54">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N8:O11">
-    <cfRule type="colorScale" priority="53">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L7:M7">
-    <cfRule type="colorScale" priority="52">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M7">
-    <cfRule type="colorScale" priority="51">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L7">
-    <cfRule type="colorScale" priority="50">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O18">
-    <cfRule type="colorScale" priority="49">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q19:S19 R5:S18">
-    <cfRule type="colorScale" priority="48">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q19:S19 R5:S18">
-    <cfRule type="colorScale" priority="47">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L5:M18">
-    <cfRule type="colorScale" priority="46">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F37:J38 F25:F36">
-    <cfRule type="colorScale" priority="45">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q25:S38">
-    <cfRule type="colorScale" priority="44">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q25:S38">
-    <cfRule type="colorScale" priority="43">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I44:M57">
-    <cfRule type="colorScale" priority="42">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I44:I57">
-    <cfRule type="colorScale" priority="41">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I44:M57">
-    <cfRule type="colorScale" priority="40">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q44:S57">
-    <cfRule type="colorScale" priority="39">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q44:S57">
-    <cfRule type="colorScale" priority="38">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I44:I57">
-    <cfRule type="colorScale" priority="37">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J44:J57">
-    <cfRule type="colorScale" priority="36">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I44:I57">
-    <cfRule type="colorScale" priority="35">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J44:J57">
-    <cfRule type="colorScale" priority="34">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K44:K57">
-    <cfRule type="colorScale" priority="33">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K44:K57">
-    <cfRule type="colorScale" priority="32">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K44:K57">
-    <cfRule type="colorScale" priority="31">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K44:K57">
-    <cfRule type="colorScale" priority="30">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L44:L57">
-    <cfRule type="colorScale" priority="29">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K44:K57">
-    <cfRule type="colorScale" priority="28">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L44:L57">
-    <cfRule type="colorScale" priority="27">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M44:M57">
-    <cfRule type="colorScale" priority="26">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L44:L57">
-    <cfRule type="colorScale" priority="25">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M44:M57">
-    <cfRule type="colorScale" priority="24">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N44:N57">
-    <cfRule type="colorScale" priority="23">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N44:N57">
-    <cfRule type="colorScale" priority="22">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N44:N57">
-    <cfRule type="colorScale" priority="21">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N44:N57">
-    <cfRule type="colorScale" priority="20">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I44:K57">
-    <cfRule type="colorScale" priority="19">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q5:Q18">
-    <cfRule type="colorScale" priority="18">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q5:Q18">
-    <cfRule type="colorScale" priority="17">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I62:K62 I72:K74 I66:K68 K69:K71 K63:K65 K75">
-    <cfRule type="colorScale" priority="16">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I72:I74 I62 I66:I68">
-    <cfRule type="colorScale" priority="15">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I62:K62">
-    <cfRule type="colorScale" priority="14">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I72:I74">
-    <cfRule type="colorScale" priority="13">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J72:J74 J62 J66:J68">
-    <cfRule type="colorScale" priority="12">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I72:I74">
-    <cfRule type="colorScale" priority="11">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J72:J74">
-    <cfRule type="colorScale" priority="10">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K62:K75">
-    <cfRule type="colorScale" priority="9">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K62:K75">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K62:K75">
-    <cfRule type="colorScale" priority="7">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K62:K75">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K62:K75">
-    <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I62:K62">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F62:J75">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E23:F36">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E23:J36">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
